--- a/Datasets/20240117-2024-Facilities-Details-FCI.xlsx
+++ b/Datasets/20240117-2024-Facilities-Details-FCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f39dbd6aba1895c4/Escritorio/Personal files/Courses/Semester 2/Project Management/Head Competition/Code/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{1BC03E7D-B424-4559-B4F2-D41F8DDEBD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13B838C-7E30-4134-968B-B58B417E98F2}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{1BC03E7D-B424-4559-B4F2-D41F8DDEBD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C42F44-B55F-4660-AA46-0B6F98C99F90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3620,8 +3620,8 @@
   </sheetPr>
   <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3699,7 +3699,7 @@
         <v>12828450.289999999</v>
       </c>
       <c r="I4" s="7">
-        <f>J4*H4</f>
+        <f t="shared" ref="I4:I67" si="0">J4*H4</f>
         <v>972839.51</v>
       </c>
       <c r="J4" s="3">
@@ -3732,7 +3732,7 @@
         <v>395826.67</v>
       </c>
       <c r="I5" s="7">
-        <f>J5*H5</f>
+        <f t="shared" si="0"/>
         <v>39145.35</v>
       </c>
       <c r="J5" s="3">
@@ -3765,7 +3765,7 @@
         <v>14585.22</v>
       </c>
       <c r="I6" s="7">
-        <f>J6*H6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -3798,7 +3798,7 @@
         <v>13716984.75</v>
       </c>
       <c r="I7" s="7">
-        <f>J7*H7</f>
+        <f t="shared" si="0"/>
         <v>304172.84999999998</v>
       </c>
       <c r="J7" s="3">
@@ -3831,7 +3831,7 @@
         <v>225260.62</v>
       </c>
       <c r="I8" s="7">
-        <f>J8*H8</f>
+        <f t="shared" si="0"/>
         <v>18695.650000000001</v>
       </c>
       <c r="J8" s="3">
@@ -3864,7 +3864,7 @@
         <v>74631.12</v>
       </c>
       <c r="I9" s="7">
-        <f>J9*H9</f>
+        <f t="shared" si="0"/>
         <v>30668.560000000001</v>
       </c>
       <c r="J9" s="3">
@@ -3897,7 +3897,7 @@
         <v>3101986.94</v>
       </c>
       <c r="I10" s="7">
-        <f>J10*H10</f>
+        <f t="shared" si="0"/>
         <v>448382.52000000008</v>
       </c>
       <c r="J10" s="3">
@@ -3930,7 +3930,7 @@
         <v>450518.89</v>
       </c>
       <c r="I11" s="7">
-        <f>J11*H11</f>
+        <f t="shared" si="0"/>
         <v>47584.05</v>
       </c>
       <c r="J11" s="3">
@@ -3963,7 +3963,7 @@
         <v>222627.18</v>
       </c>
       <c r="I12" s="7">
-        <f>J12*H12</f>
+        <f t="shared" si="0"/>
         <v>2332.0500000000002</v>
       </c>
       <c r="J12" s="3">
@@ -3996,7 +3996,7 @@
         <v>8282617.0199999996</v>
       </c>
       <c r="I13" s="7">
-        <f>J13*H13</f>
+        <f t="shared" si="0"/>
         <v>2126278</v>
       </c>
       <c r="J13" s="3">
@@ -4029,7 +4029,7 @@
         <v>8695848.9800000004</v>
       </c>
       <c r="I14" s="7">
-        <f>J14*H14</f>
+        <f t="shared" si="0"/>
         <v>993009.34</v>
       </c>
       <c r="J14" s="3">
@@ -4062,7 +4062,7 @@
         <v>3741484.72</v>
       </c>
       <c r="I15" s="7">
-        <f>J15*H15</f>
+        <f t="shared" si="0"/>
         <v>322106.98</v>
       </c>
       <c r="J15" s="3">
@@ -4095,7 +4095,7 @@
         <v>1409879.18</v>
       </c>
       <c r="I16" s="7">
-        <f>J16*H16</f>
+        <f t="shared" si="0"/>
         <v>133608.51999999999</v>
       </c>
       <c r="J16" s="3">
@@ -4128,7 +4128,7 @@
         <v>6272035.2599999998</v>
       </c>
       <c r="I17" s="7">
-        <f>J17*H17</f>
+        <f t="shared" si="0"/>
         <v>709164.5</v>
       </c>
       <c r="J17" s="3">
@@ -4161,7 +4161,7 @@
         <v>11962518.75</v>
       </c>
       <c r="I18" s="7">
-        <f>J18*H18</f>
+        <f t="shared" si="0"/>
         <v>98023.71</v>
       </c>
       <c r="J18" s="3">
@@ -4194,7 +4194,7 @@
         <v>2749003.27</v>
       </c>
       <c r="I19" s="7">
-        <f>J19*H19</f>
+        <f t="shared" si="0"/>
         <v>218314.58</v>
       </c>
       <c r="J19" s="3">
@@ -4227,7 +4227,7 @@
         <v>139369.88</v>
       </c>
       <c r="I20" s="7">
-        <f>J20*H20</f>
+        <f t="shared" si="0"/>
         <v>22131.519999999997</v>
       </c>
       <c r="J20" s="3">
@@ -4260,7 +4260,7 @@
         <v>6586373.5499999998</v>
       </c>
       <c r="I21" s="7">
-        <f>J21*H21</f>
+        <f t="shared" si="0"/>
         <v>290259.14</v>
       </c>
       <c r="J21" s="3">
@@ -4293,7 +4293,7 @@
         <v>5855204.4500000002</v>
       </c>
       <c r="I22" s="7">
-        <f>J22*H22</f>
+        <f t="shared" si="0"/>
         <v>594743.28</v>
       </c>
       <c r="J22" s="3">
@@ -4326,7 +4326,7 @@
         <v>678617.88</v>
       </c>
       <c r="I23" s="7">
-        <f>J23*H23</f>
+        <f t="shared" si="0"/>
         <v>11772.720000000001</v>
       </c>
       <c r="J23" s="3">
@@ -4359,7 +4359,7 @@
         <v>140382.74</v>
       </c>
       <c r="I24" s="7">
-        <f>J24*H24</f>
+        <f t="shared" si="0"/>
         <v>2111.7800000000002</v>
       </c>
       <c r="J24" s="3">
@@ -4392,7 +4392,7 @@
         <v>92170.49</v>
       </c>
       <c r="I25" s="7">
-        <f>J25*H25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
@@ -4425,7 +4425,7 @@
         <v>24909.52</v>
       </c>
       <c r="I26" s="7">
-        <f>J26*H26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="3">
@@ -4458,7 +4458,7 @@
         <v>526688.5</v>
       </c>
       <c r="I27" s="7">
-        <f>J27*H27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="3">
@@ -4491,7 +4491,7 @@
         <v>733453.43</v>
       </c>
       <c r="I28" s="7">
-        <f>J28*H28</f>
+        <f t="shared" si="0"/>
         <v>19657.45</v>
       </c>
       <c r="J28" s="3">
@@ -4522,7 +4522,7 @@
         <v>3212140.05</v>
       </c>
       <c r="I29" s="7">
-        <f>J29*H29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="3">
@@ -4555,7 +4555,7 @@
         <v>370099.96</v>
       </c>
       <c r="I30" s="7">
-        <f>J30*H30</f>
+        <f t="shared" si="0"/>
         <v>10771.35</v>
       </c>
       <c r="J30" s="3">
@@ -4588,7 +4588,7 @@
         <v>3566892.9</v>
       </c>
       <c r="I31" s="7">
-        <f>J31*H31</f>
+        <f t="shared" si="0"/>
         <v>3009.97</v>
       </c>
       <c r="J31" s="3">
@@ -4619,7 +4619,7 @@
         <v>58746.03</v>
       </c>
       <c r="I32" s="7">
-        <f>J32*H32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="3">
@@ -4652,7 +4652,7 @@
         <v>73938.960000000006</v>
       </c>
       <c r="I33" s="7">
-        <f>J33*H33</f>
+        <f t="shared" si="0"/>
         <v>32142.74</v>
       </c>
       <c r="J33" s="3">
@@ -4685,7 +4685,7 @@
         <v>25797977.18</v>
       </c>
       <c r="I34" s="7">
-        <f>J34*H34</f>
+        <f t="shared" si="0"/>
         <v>1348067.86</v>
       </c>
       <c r="J34" s="3">
@@ -4718,7 +4718,7 @@
         <v>3634486.37</v>
       </c>
       <c r="I35" s="7">
-        <f>J35*H35</f>
+        <f t="shared" si="0"/>
         <v>563045.18000000005</v>
       </c>
       <c r="J35" s="3">
@@ -4751,7 +4751,7 @@
         <v>82824.149999999994</v>
       </c>
       <c r="I36" s="7">
-        <f>J36*H36</f>
+        <f t="shared" si="0"/>
         <v>2035.84</v>
       </c>
       <c r="J36" s="3">
@@ -4784,7 +4784,7 @@
         <v>3186133.16</v>
       </c>
       <c r="I37" s="7">
-        <f>J37*H37</f>
+        <f t="shared" si="0"/>
         <v>221554.76</v>
       </c>
       <c r="J37" s="3">
@@ -4817,7 +4817,7 @@
         <v>8126839.8399999999</v>
       </c>
       <c r="I38" s="7">
-        <f>J38*H38</f>
+        <f t="shared" si="0"/>
         <v>852046.24</v>
       </c>
       <c r="J38" s="3">
@@ -4850,7 +4850,7 @@
         <v>1428615.12</v>
       </c>
       <c r="I39" s="7">
-        <f>J39*H39</f>
+        <f t="shared" si="0"/>
         <v>1174228.6200000001</v>
       </c>
       <c r="J39" s="3">
@@ -4883,7 +4883,7 @@
         <v>391535.85</v>
       </c>
       <c r="I40" s="7">
-        <f>J40*H40</f>
+        <f t="shared" si="0"/>
         <v>263766.40000000002</v>
       </c>
       <c r="J40" s="3">
@@ -4916,7 +4916,7 @@
         <v>36418896.530000001</v>
       </c>
       <c r="I41" s="7">
-        <f>J41*H41</f>
+        <f t="shared" si="0"/>
         <v>45873.08</v>
       </c>
       <c r="J41" s="3">
@@ -4949,7 +4949,7 @@
         <v>139369.88</v>
       </c>
       <c r="I42" s="7">
-        <f>J42*H42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J42" s="3">
@@ -4982,7 +4982,7 @@
         <v>18897904.920000002</v>
       </c>
       <c r="I43" s="7">
-        <f>J43*H43</f>
+        <f t="shared" si="0"/>
         <v>5606799.4199999999</v>
       </c>
       <c r="J43" s="3">
@@ -5011,7 +5011,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
       <c r="I44" s="7" t="e">
-        <f>J44*H44</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -5044,7 +5044,7 @@
         <v>539653.14</v>
       </c>
       <c r="I45" s="7">
-        <f>J45*H45</f>
+        <f t="shared" si="0"/>
         <v>58855.360000000001</v>
       </c>
       <c r="J45" s="3">
@@ -5077,7 +5077,7 @@
         <v>124260.81</v>
       </c>
       <c r="I46" s="7">
-        <f>J46*H46</f>
+        <f t="shared" si="0"/>
         <v>4059.5599999999995</v>
       </c>
       <c r="J46" s="3">
@@ -5110,7 +5110,7 @@
         <v>53884.29</v>
       </c>
       <c r="I47" s="7">
-        <f>J47*H47</f>
+        <f t="shared" si="0"/>
         <v>3498.07</v>
       </c>
       <c r="J47" s="3">
@@ -5143,7 +5143,7 @@
         <v>47950.83</v>
       </c>
       <c r="I48" s="7">
-        <f>J48*H48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J48" s="3">
@@ -5176,7 +5176,7 @@
         <v>60771.75</v>
       </c>
       <c r="I49" s="7">
-        <f>J49*H49</f>
+        <f t="shared" si="0"/>
         <v>4877.92</v>
       </c>
       <c r="J49" s="3">
@@ -5209,7 +5209,7 @@
         <v>121543.5</v>
       </c>
       <c r="I50" s="7">
-        <f>J50*H50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J50" s="3">
@@ -5242,7 +5242,7 @@
         <v>809277.14</v>
       </c>
       <c r="I51" s="7">
-        <f>J51*H51</f>
+        <f t="shared" si="0"/>
         <v>86518.62</v>
       </c>
       <c r="J51" s="3">
@@ -5275,7 +5275,7 @@
         <v>15754847.5</v>
       </c>
       <c r="I52" s="7">
-        <f>J52*H52</f>
+        <f t="shared" si="0"/>
         <v>3603496.17</v>
       </c>
       <c r="J52" s="3">
@@ -5308,7 +5308,7 @@
         <v>21192356.59</v>
       </c>
       <c r="I53" s="7">
-        <f>J53*H53</f>
+        <f t="shared" si="0"/>
         <v>1268847.6100000001</v>
       </c>
       <c r="J53" s="3">
@@ -5341,7 +5341,7 @@
         <v>1523528.52</v>
       </c>
       <c r="I54" s="7">
-        <f>J54*H54</f>
+        <f t="shared" si="0"/>
         <v>77470.649999999994</v>
       </c>
       <c r="J54" s="3">
@@ -5374,7 +5374,7 @@
         <v>284614.36</v>
       </c>
       <c r="I55" s="7">
-        <f>J55*H55</f>
+        <f t="shared" si="0"/>
         <v>15394.03</v>
       </c>
       <c r="J55" s="3">
@@ -5407,7 +5407,7 @@
         <v>4615242.5999999996</v>
       </c>
       <c r="I56" s="7">
-        <f>J56*H56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J56" s="3">
@@ -5440,7 +5440,7 @@
         <v>3113868.54</v>
       </c>
       <c r="I57" s="7">
-        <f>J57*H57</f>
+        <f t="shared" si="0"/>
         <v>516306.17</v>
       </c>
       <c r="J57" s="3">
@@ -5473,7 +5473,7 @@
         <v>50643.13</v>
       </c>
       <c r="I58" s="7">
-        <f>J58*H58</f>
+        <f t="shared" si="0"/>
         <v>39064.44</v>
       </c>
       <c r="J58" s="3">
@@ -5506,7 +5506,7 @@
         <v>2249501.9</v>
       </c>
       <c r="I59" s="7">
-        <f>J59*H59</f>
+        <f t="shared" si="0"/>
         <v>1068110.23</v>
       </c>
       <c r="J59" s="3">
@@ -5539,7 +5539,7 @@
         <v>207278.88</v>
       </c>
       <c r="I60" s="7">
-        <f>J60*H60</f>
+        <f t="shared" si="0"/>
         <v>34376.51</v>
       </c>
       <c r="J60" s="3">
@@ -5572,7 +5572,7 @@
         <v>26334.43</v>
       </c>
       <c r="I61" s="7">
-        <f>J61*H61</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J61" s="3">
@@ -5605,7 +5605,7 @@
         <v>206288.32</v>
       </c>
       <c r="I62" s="7">
-        <f>J62*H62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
@@ -5638,7 +5638,7 @@
         <v>77585.27</v>
       </c>
       <c r="I63" s="7">
-        <f>J63*H63</f>
+        <f t="shared" si="0"/>
         <v>6264.93</v>
       </c>
       <c r="J63" s="3">
@@ -5671,7 +5671,7 @@
         <v>2812188.13</v>
       </c>
       <c r="I64" s="7">
-        <f>J64*H64</f>
+        <f t="shared" si="0"/>
         <v>2107963.25</v>
       </c>
       <c r="J64" s="3">
@@ -5704,7 +5704,7 @@
         <v>676320.83</v>
       </c>
       <c r="I65" s="7">
-        <f>J65*H65</f>
+        <f t="shared" si="0"/>
         <v>454922.32</v>
       </c>
       <c r="J65" s="3">
@@ -5737,7 +5737,7 @@
         <v>1404024.2</v>
       </c>
       <c r="I66" s="7">
-        <f>J66*H66</f>
+        <f t="shared" si="0"/>
         <v>238912.8</v>
       </c>
       <c r="J66" s="3">
@@ -5770,7 +5770,7 @@
         <v>385495.47</v>
       </c>
       <c r="I67" s="7">
-        <f>J67*H67</f>
+        <f t="shared" si="0"/>
         <v>40764.44</v>
       </c>
       <c r="J67" s="3">
@@ -5803,7 +5803,7 @@
         <v>25321.56</v>
       </c>
       <c r="I68" s="7">
-        <f>J68*H68</f>
+        <f t="shared" ref="I68:I131" si="1">J68*H68</f>
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -5836,7 +5836,7 @@
         <v>18657.78</v>
       </c>
       <c r="I69" s="7">
-        <f>J69*H69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -5869,7 +5869,7 @@
         <v>396839.53</v>
       </c>
       <c r="I70" s="7">
-        <f>J70*H70</f>
+        <f t="shared" si="1"/>
         <v>73328.47</v>
       </c>
       <c r="J70" s="3">
@@ -5902,7 +5902,7 @@
         <v>56720.3</v>
       </c>
       <c r="I71" s="7">
-        <f>J71*H71</f>
+        <f t="shared" si="1"/>
         <v>26749.19</v>
       </c>
       <c r="J71" s="3">
@@ -5935,7 +5935,7 @@
         <v>276916.61</v>
       </c>
       <c r="I72" s="7">
-        <f>J72*H72</f>
+        <f t="shared" si="1"/>
         <v>34985.199999999997</v>
       </c>
       <c r="J72" s="3">
@@ -5968,7 +5968,7 @@
         <v>19345210.989999998</v>
       </c>
       <c r="I73" s="7">
-        <f>J73*H73</f>
+        <f t="shared" si="1"/>
         <v>3597404.3599999994</v>
       </c>
       <c r="J73" s="3">
@@ -6001,7 +6001,7 @@
         <v>97437.37</v>
       </c>
       <c r="I74" s="7">
-        <f>J74*H74</f>
+        <f t="shared" si="1"/>
         <v>59769.41</v>
       </c>
       <c r="J74" s="3">
@@ -6034,7 +6034,7 @@
         <v>1683709.73</v>
       </c>
       <c r="I75" s="7">
-        <f>J75*H75</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J75" s="3">
@@ -6067,7 +6067,7 @@
         <v>3621479.42</v>
       </c>
       <c r="I76" s="7">
-        <f>J76*H76</f>
+        <f t="shared" si="1"/>
         <v>108591.31</v>
       </c>
       <c r="J76" s="3">
@@ -6100,7 +6100,7 @@
         <v>128025.82</v>
       </c>
       <c r="I77" s="7">
-        <f>J77*H77</f>
+        <f t="shared" si="1"/>
         <v>15219.26</v>
       </c>
       <c r="J77" s="3">
@@ -6133,7 +6133,7 @@
         <v>67456.639999999999</v>
       </c>
       <c r="I78" s="7">
-        <f>J78*H78</f>
+        <f t="shared" si="1"/>
         <v>281.56</v>
       </c>
       <c r="J78" s="3">
@@ -6166,7 +6166,7 @@
         <v>298794.44</v>
       </c>
       <c r="I79" s="7">
-        <f>J79*H79</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J79" s="3">
@@ -6199,7 +6199,7 @@
         <v>101563.97</v>
       </c>
       <c r="I80" s="7">
-        <f>J80*H80</f>
+        <f t="shared" si="1"/>
         <v>58439.94</v>
       </c>
       <c r="J80" s="3">
@@ -6232,7 +6232,7 @@
         <v>122488.33</v>
       </c>
       <c r="I81" s="7">
-        <f>J81*H81</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J81" s="3">
@@ -6265,7 +6265,7 @@
         <v>16229163.42</v>
       </c>
       <c r="I82" s="7">
-        <f>J82*H82</f>
+        <f t="shared" si="1"/>
         <v>1372189.9</v>
       </c>
       <c r="J82" s="3">
@@ -6298,7 +6298,7 @@
         <v>140787.89000000001</v>
       </c>
       <c r="I83" s="7">
-        <f>J83*H83</f>
+        <f t="shared" si="1"/>
         <v>7123.71</v>
       </c>
       <c r="J83" s="3">
@@ -6331,7 +6331,7 @@
         <v>102263462.48999999</v>
       </c>
       <c r="I84" s="7">
-        <f>J84*H84</f>
+        <f t="shared" si="1"/>
         <v>2345744.2000000002</v>
       </c>
       <c r="J84" s="3">
@@ -6364,7 +6364,7 @@
         <v>17661883.059999999</v>
       </c>
       <c r="I85" s="7">
-        <f>J85*H85</f>
+        <f t="shared" si="1"/>
         <v>1974193.4</v>
       </c>
       <c r="J85" s="3">
@@ -6397,7 +6397,7 @@
         <v>3635942.58</v>
       </c>
       <c r="I86" s="7">
-        <f>J86*H86</f>
+        <f t="shared" si="1"/>
         <v>840178.1</v>
       </c>
       <c r="J86" s="3">
@@ -6430,7 +6430,7 @@
         <v>18471.2</v>
       </c>
       <c r="I87" s="7">
-        <f>J87*H87</f>
+        <f t="shared" si="1"/>
         <v>1970.98</v>
       </c>
       <c r="J87" s="3">
@@ -6463,7 +6463,7 @@
         <v>602450.62</v>
       </c>
       <c r="I88" s="7">
-        <f>J88*H88</f>
+        <f t="shared" si="1"/>
         <v>231360.19</v>
       </c>
       <c r="J88" s="3">
@@ -6496,7 +6496,7 @@
         <v>151574.43</v>
       </c>
       <c r="I89" s="7">
-        <f>J89*H89</f>
+        <f t="shared" si="1"/>
         <v>42235.75</v>
       </c>
       <c r="J89" s="3">
@@ -6529,7 +6529,7 @@
         <v>26334.43</v>
       </c>
       <c r="I90" s="7">
-        <f>J90*H90</f>
+        <f t="shared" si="1"/>
         <v>9097.9699999999993</v>
       </c>
       <c r="J90" s="3">
@@ -6562,7 +6562,7 @@
         <v>156183.4</v>
       </c>
       <c r="I91" s="7">
-        <f>J91*H91</f>
+        <f t="shared" si="1"/>
         <v>5222.3399999999992</v>
       </c>
       <c r="J91" s="3">
@@ -6595,7 +6595,7 @@
         <v>39501.64</v>
       </c>
       <c r="I92" s="7">
-        <f>J92*H92</f>
+        <f t="shared" si="1"/>
         <v>2815.71</v>
       </c>
       <c r="J92" s="3">
@@ -6628,7 +6628,7 @@
         <v>88119.039999999994</v>
       </c>
       <c r="I93" s="7">
-        <f>J93*H93</f>
+        <f t="shared" si="1"/>
         <v>18836.349999999999</v>
       </c>
       <c r="J93" s="3">
@@ -6661,7 +6661,7 @@
         <v>111009.73</v>
       </c>
       <c r="I94" s="7">
-        <f>J94*H94</f>
+        <f t="shared" si="1"/>
         <v>27332.11</v>
       </c>
       <c r="J94" s="3">
@@ -6694,7 +6694,7 @@
         <v>146662.49</v>
       </c>
       <c r="I95" s="7">
-        <f>J95*H95</f>
+        <f t="shared" si="1"/>
         <v>56726.79</v>
       </c>
       <c r="J95" s="3">
@@ -6727,7 +6727,7 @@
         <v>80218.710000000006</v>
       </c>
       <c r="I96" s="7">
-        <f>J96*H96</f>
+        <f t="shared" si="1"/>
         <v>60337.25</v>
       </c>
       <c r="J96" s="3">
@@ -6760,7 +6760,7 @@
         <v>2308661</v>
       </c>
       <c r="I97" s="7">
-        <f>J97*H97</f>
+        <f t="shared" si="1"/>
         <v>147517.85</v>
       </c>
       <c r="J97" s="3">
@@ -6793,7 +6793,7 @@
         <v>44001731.270000003</v>
       </c>
       <c r="I98" s="7">
-        <f>J98*H98</f>
+        <f t="shared" si="1"/>
         <v>2281939.73</v>
       </c>
       <c r="J98" s="3">
@@ -6826,7 +6826,7 @@
         <v>6359055.5</v>
       </c>
       <c r="I99" s="7">
-        <f>J99*H99</f>
+        <f t="shared" si="1"/>
         <v>1277334.55</v>
       </c>
       <c r="J99" s="3">
@@ -6859,7 +6859,7 @@
         <v>4062417.47</v>
       </c>
       <c r="I100" s="7">
-        <f>J100*H100</f>
+        <f t="shared" si="1"/>
         <v>2061871.8399999999</v>
       </c>
       <c r="J100" s="3">
@@ -6892,7 +6892,7 @@
         <v>870928.28</v>
       </c>
       <c r="I101" s="7">
-        <f>J101*H101</f>
+        <f t="shared" si="1"/>
         <v>93208.48</v>
       </c>
       <c r="J101" s="3">
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="7" t="e">
-        <f>J102*H102</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -6952,7 +6952,7 @@
         <v>1337277.43</v>
       </c>
       <c r="I103" s="7">
-        <f>J103*H103</f>
+        <f t="shared" si="1"/>
         <v>158593.42000000001</v>
       </c>
       <c r="J103" s="3">
@@ -6985,7 +6985,7 @@
         <v>54897.15</v>
       </c>
       <c r="I104" s="7">
-        <f>J104*H104</f>
+        <f t="shared" si="1"/>
         <v>5631.43</v>
       </c>
       <c r="J104" s="3">
@@ -7018,7 +7018,7 @@
         <v>27955.01</v>
       </c>
       <c r="I105" s="7">
-        <f>J105*H105</f>
+        <f t="shared" si="1"/>
         <v>3941.98</v>
       </c>
       <c r="J105" s="3">
@@ -7051,7 +7051,7 @@
         <v>36868.199999999997</v>
       </c>
       <c r="I106" s="7">
-        <f>J106*H106</f>
+        <f t="shared" si="1"/>
         <v>8179.58</v>
       </c>
       <c r="J106" s="3">
@@ -7084,7 +7084,7 @@
         <v>5830.21</v>
       </c>
       <c r="I107" s="7">
-        <f>J107*H107</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J107" s="3">
@@ -7117,7 +7117,7 @@
         <v>5830.21</v>
       </c>
       <c r="I108" s="7">
-        <f>J108*H108</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J108" s="3">
@@ -7150,7 +7150,7 @@
         <v>5830.21</v>
       </c>
       <c r="I109" s="7">
-        <f>J109*H109</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J109" s="3">
@@ -7183,7 +7183,7 @@
         <v>5830.21</v>
       </c>
       <c r="I110" s="7">
-        <f>J110*H110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J110" s="3">
@@ -7216,7 +7216,7 @@
         <v>5830.21</v>
       </c>
       <c r="I111" s="7">
-        <f>J111*H111</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J111" s="3">
@@ -7249,7 +7249,7 @@
         <v>5830.21</v>
       </c>
       <c r="I112" s="7">
-        <f>J112*H112</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J112" s="3">
@@ -7282,7 +7282,7 @@
         <v>5830.21</v>
       </c>
       <c r="I113" s="7">
-        <f>J113*H113</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J113" s="3">
@@ -7315,7 +7315,7 @@
         <v>5830.21</v>
       </c>
       <c r="I114" s="7">
-        <f>J114*H114</f>
+        <f t="shared" si="1"/>
         <v>147.81</v>
       </c>
       <c r="J114" s="3">
@@ -7348,7 +7348,7 @@
         <v>5830.21</v>
       </c>
       <c r="I115" s="7">
-        <f>J115*H115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J115" s="3">
@@ -7381,7 +7381,7 @@
         <v>5830.21</v>
       </c>
       <c r="I116" s="7">
-        <f>J116*H116</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J116" s="3">
@@ -7414,7 +7414,7 @@
         <v>5830.21</v>
       </c>
       <c r="I117" s="7">
-        <f>J117*H117</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J117" s="3">
@@ -7447,7 +7447,7 @@
         <v>5830.21</v>
       </c>
       <c r="I118" s="7">
-        <f>J118*H118</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J118" s="3">
@@ -7480,7 +7480,7 @@
         <v>5830.21</v>
       </c>
       <c r="I119" s="7">
-        <f>J119*H119</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J119" s="3">
@@ -7513,7 +7513,7 @@
         <v>5830.21</v>
       </c>
       <c r="I120" s="7">
-        <f>J120*H120</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J120" s="3">
@@ -7546,7 +7546,7 @@
         <v>173604.63</v>
       </c>
       <c r="I121" s="7">
-        <f>J121*H121</f>
+        <f t="shared" si="1"/>
         <v>30512.36</v>
       </c>
       <c r="J121" s="3">
@@ -7579,7 +7579,7 @@
         <v>12022848.67</v>
       </c>
       <c r="I122" s="7">
-        <f>J122*H122</f>
+        <f t="shared" si="1"/>
         <v>559205.51</v>
       </c>
       <c r="J122" s="3">
@@ -7612,7 +7612,7 @@
         <v>1556557.13</v>
       </c>
       <c r="I123" s="7">
-        <f>J123*H123</f>
+        <f t="shared" si="1"/>
         <v>103601.99</v>
       </c>
       <c r="J123" s="3">
@@ -7645,7 +7645,7 @@
         <v>6244022.0300000003</v>
       </c>
       <c r="I124" s="7">
-        <f>J124*H124</f>
+        <f t="shared" si="1"/>
         <v>880503.88</v>
       </c>
       <c r="J124" s="3">
@@ -7678,7 +7678,7 @@
         <v>1952928.58</v>
       </c>
       <c r="I125" s="7">
-        <f>J125*H125</f>
+        <f t="shared" si="1"/>
         <v>266775.3</v>
       </c>
       <c r="J125" s="3">
@@ -7711,7 +7711,7 @@
         <v>4934930.0599999996</v>
       </c>
       <c r="I126" s="7">
-        <f>J126*H126</f>
+        <f t="shared" si="1"/>
         <v>159768.53999999998</v>
       </c>
       <c r="J126" s="3">
@@ -7744,7 +7744,7 @@
         <v>121648.73</v>
       </c>
       <c r="I127" s="7">
-        <f>J127*H127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J127" s="3">
@@ -7777,7 +7777,7 @@
         <v>313177.09000000003</v>
       </c>
       <c r="I128" s="7">
-        <f>J128*H128</f>
+        <f t="shared" si="1"/>
         <v>26174.84</v>
       </c>
       <c r="J128" s="3">
@@ -7810,7 +7810,7 @@
         <v>15855560.08</v>
       </c>
       <c r="I129" s="7">
-        <f>J129*H129</f>
+        <f t="shared" si="1"/>
         <v>363710.89</v>
       </c>
       <c r="J129" s="3">
@@ -7843,7 +7843,7 @@
         <v>7982473.8899999997</v>
       </c>
       <c r="I130" s="7">
-        <f>J130*H130</f>
+        <f t="shared" si="1"/>
         <v>1745.7</v>
       </c>
       <c r="J130" s="3">
@@ -7876,7 +7876,7 @@
         <v>138534.01999999999</v>
       </c>
       <c r="I131" s="7">
-        <f>J131*H131</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J131" s="3">
@@ -7909,7 +7909,7 @@
         <v>8345871.9299999997</v>
       </c>
       <c r="I132" s="7">
-        <f>J132*H132</f>
+        <f t="shared" ref="I132:I195" si="2">J132*H132</f>
         <v>164987.76</v>
       </c>
       <c r="J132" s="3">
@@ -7942,7 +7942,7 @@
         <v>37538341.909999996</v>
       </c>
       <c r="I133" s="7">
-        <f>J133*H133</f>
+        <f t="shared" si="2"/>
         <v>1412861.9500000002</v>
       </c>
       <c r="J133" s="3">
@@ -7975,7 +7975,7 @@
         <v>12563045</v>
       </c>
       <c r="I134" s="7">
-        <f>J134*H134</f>
+        <f t="shared" si="2"/>
         <v>157762.04999999999</v>
       </c>
       <c r="J134" s="3">
@@ -8008,7 +8008,7 @@
         <v>13901889.42</v>
       </c>
       <c r="I135" s="7">
-        <f>J135*H135</f>
+        <f t="shared" si="2"/>
         <v>739415.03</v>
       </c>
       <c r="J135" s="3">
@@ -8041,7 +8041,7 @@
         <v>8784780.3200000003</v>
       </c>
       <c r="I136" s="7">
-        <f>J136*H136</f>
+        <f t="shared" si="2"/>
         <v>1063526.25</v>
       </c>
       <c r="J136" s="3">
@@ -8074,7 +8074,7 @@
         <v>259090.23</v>
       </c>
       <c r="I137" s="7">
-        <f>J137*H137</f>
+        <f t="shared" si="2"/>
         <v>26186.080000000002</v>
       </c>
       <c r="J137" s="3">
@@ -8107,7 +8107,7 @@
         <v>872074.61</v>
       </c>
       <c r="I138" s="7">
-        <f>J138*H138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J138" s="3">
@@ -8140,7 +8140,7 @@
         <v>329788.03000000003</v>
       </c>
       <c r="I139" s="7">
-        <f>J139*H139</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J139" s="3">
@@ -8173,7 +8173,7 @@
         <v>2398570.2000000002</v>
       </c>
       <c r="I140" s="7">
-        <f>J140*H140</f>
+        <f t="shared" si="2"/>
         <v>89456.03</v>
       </c>
       <c r="J140" s="3">
@@ -8206,7 +8206,7 @@
         <v>222222.03</v>
       </c>
       <c r="I141" s="7">
-        <f>J141*H141</f>
+        <f t="shared" si="2"/>
         <v>12796.94</v>
       </c>
       <c r="J141" s="3">
@@ -8239,7 +8239,7 @@
         <v>416894.21</v>
       </c>
       <c r="I142" s="7">
-        <f>J142*H142</f>
+        <f t="shared" si="2"/>
         <v>9649.9599999999991</v>
       </c>
       <c r="J142" s="3">
@@ -8272,7 +8272,7 @@
         <v>248151.31</v>
       </c>
       <c r="I143" s="7">
-        <f>J143*H143</f>
+        <f t="shared" si="2"/>
         <v>1407.85</v>
       </c>
       <c r="J143" s="3">
@@ -8305,7 +8305,7 @@
         <v>21270.11</v>
       </c>
       <c r="I144" s="7">
-        <f>J144*H144</f>
+        <f t="shared" si="2"/>
         <v>9649.9599999999991</v>
       </c>
       <c r="J144" s="3">
@@ -8338,7 +8338,7 @@
         <v>1248066.5</v>
       </c>
       <c r="I145" s="7">
-        <f>J145*H145</f>
+        <f t="shared" si="2"/>
         <v>406667.43</v>
       </c>
       <c r="J145" s="3">
@@ -8371,7 +8371,7 @@
         <v>491238.31</v>
       </c>
       <c r="I146" s="7">
-        <f>J146*H146</f>
+        <f t="shared" si="2"/>
         <v>21827.37</v>
       </c>
       <c r="J146" s="3">
@@ -8404,7 +8404,7 @@
         <v>41729.94</v>
       </c>
       <c r="I147" s="7">
-        <f>J147*H147</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J147" s="3">
@@ -8437,7 +8437,7 @@
         <v>10138918.789999999</v>
       </c>
       <c r="I148" s="7">
-        <f>J148*H148</f>
+        <f t="shared" si="2"/>
         <v>583527.47</v>
       </c>
       <c r="J148" s="3">
@@ -8470,7 +8470,7 @@
         <v>11535715.16</v>
       </c>
       <c r="I149" s="7">
-        <f>J149*H149</f>
+        <f t="shared" si="2"/>
         <v>185568.22</v>
       </c>
       <c r="J149" s="3">
@@ -8503,7 +8503,7 @@
         <v>2879316.5</v>
       </c>
       <c r="I150" s="7">
-        <f>J150*H150</f>
+        <f t="shared" si="2"/>
         <v>187810.97</v>
       </c>
       <c r="J150" s="3">
@@ -8536,7 +8536,7 @@
         <v>9466460.5999999996</v>
       </c>
       <c r="I151" s="7">
-        <f>J151*H151</f>
+        <f t="shared" si="2"/>
         <v>4122960.23</v>
       </c>
       <c r="J151" s="3">
@@ -8569,7 +8569,7 @@
         <v>3395898.38</v>
       </c>
       <c r="I152" s="7">
-        <f>J152*H152</f>
+        <f t="shared" si="2"/>
         <v>833229.09</v>
       </c>
       <c r="J152" s="3">
@@ -8602,7 +8602,7 @@
         <v>773219.23</v>
       </c>
       <c r="I153" s="7">
-        <f>J153*H153</f>
+        <f t="shared" si="2"/>
         <v>168241.96</v>
       </c>
       <c r="J153" s="3">
@@ -8635,7 +8635,7 @@
         <v>3801377.68</v>
       </c>
       <c r="I154" s="7">
-        <f>J154*H154</f>
+        <f t="shared" si="2"/>
         <v>950438.37</v>
       </c>
       <c r="J154" s="3">
@@ -8668,7 +8668,7 @@
         <v>2810390.4</v>
       </c>
       <c r="I155" s="7">
-        <f>J155*H155</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J155" s="3">
@@ -8701,7 +8701,7 @@
         <v>112092.84</v>
       </c>
       <c r="I156" s="7">
-        <f>J156*H156</f>
+        <f t="shared" si="2"/>
         <v>21051.59</v>
       </c>
       <c r="J156" s="3">
@@ -8734,7 +8734,7 @@
         <v>52668.85</v>
       </c>
       <c r="I157" s="7">
-        <f>J157*H157</f>
+        <f t="shared" si="2"/>
         <v>9739</v>
       </c>
       <c r="J157" s="3">
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="7" t="e">
-        <f>J158*H158</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J158" s="3" t="s">
@@ -8786,7 +8786,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="6"/>
       <c r="I159" s="7" t="e">
-        <f>J159*H159</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J159" s="3" t="s">
@@ -8811,7 +8811,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="6"/>
       <c r="I160" s="7" t="e">
-        <f>J160*H160</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J160" s="3" t="s">
@@ -8844,7 +8844,7 @@
         <v>117492.05</v>
       </c>
       <c r="I161" s="7">
-        <f>J161*H161</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J161" s="3">
@@ -8877,7 +8877,7 @@
         <v>854859.73</v>
       </c>
       <c r="I162" s="7">
-        <f>J162*H162</f>
+        <f t="shared" si="2"/>
         <v>115352.38</v>
       </c>
       <c r="J162" s="3">
@@ -8910,7 +8910,7 @@
         <v>1529017.24</v>
       </c>
       <c r="I163" s="7">
-        <f>J163*H163</f>
+        <f t="shared" si="2"/>
         <v>107049.99999999999</v>
       </c>
       <c r="J163" s="3">
@@ -8941,7 +8941,7 @@
         <v>139167.31</v>
       </c>
       <c r="I164" s="7">
-        <f>J164*H164</f>
+        <f t="shared" si="2"/>
         <v>2332.0500000000002</v>
       </c>
       <c r="J164" s="3">
@@ -8974,7 +8974,7 @@
         <v>15402092.699999999</v>
       </c>
       <c r="I165" s="7">
-        <f>J165*H165</f>
+        <f t="shared" si="2"/>
         <v>7672870.8700000001</v>
       </c>
       <c r="J165" s="3">
@@ -9007,7 +9007,7 @@
         <v>562543.82999999996</v>
       </c>
       <c r="I166" s="7">
-        <f>J166*H166</f>
+        <f t="shared" si="2"/>
         <v>31628.71</v>
       </c>
       <c r="J166" s="3">
@@ -9040,7 +9040,7 @@
         <v>163881.15</v>
       </c>
       <c r="I167" s="7">
-        <f>J167*H167</f>
+        <f t="shared" si="2"/>
         <v>20132.330000000002</v>
       </c>
       <c r="J167" s="3">
@@ -9073,7 +9073,7 @@
         <v>139369.88</v>
       </c>
       <c r="I168" s="7">
-        <f>J168*H168</f>
+        <f t="shared" si="2"/>
         <v>5988.11</v>
       </c>
       <c r="J168" s="3">
@@ -9106,7 +9106,7 @@
         <v>14585.22</v>
       </c>
       <c r="I169" s="7">
-        <f>J169*H169</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J169" s="3">
@@ -9139,7 +9139,7 @@
         <v>34796.76</v>
       </c>
       <c r="I170" s="7">
-        <f>J170*H170</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J170" s="3">
@@ -9172,7 +9172,7 @@
         <v>57125.45</v>
       </c>
       <c r="I171" s="7">
-        <f>J171*H171</f>
+        <f t="shared" si="2"/>
         <v>5419.07</v>
       </c>
       <c r="J171" s="3">
@@ -9205,7 +9205,7 @@
         <v>81029</v>
       </c>
       <c r="I172" s="7">
-        <f>J172*H172</f>
+        <f t="shared" si="2"/>
         <v>2332.0500000000002</v>
       </c>
       <c r="J172" s="3">
@@ -9238,7 +9238,7 @@
         <v>12454.76</v>
       </c>
       <c r="I173" s="7">
-        <f>J173*H173</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J173" s="3">
@@ -9271,7 +9271,7 @@
         <v>35449.78</v>
       </c>
       <c r="I174" s="7">
-        <f>J174*H174</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J174" s="3">
@@ -9304,7 +9304,7 @@
         <v>14585.22</v>
       </c>
       <c r="I175" s="7">
-        <f>J175*H175</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J175" s="3">
@@ -9337,7 +9337,7 @@
         <v>851817.36</v>
       </c>
       <c r="I176" s="7">
-        <f>J176*H176</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J176" s="3">
@@ -9370,7 +9370,7 @@
         <v>119922.92</v>
       </c>
       <c r="I177" s="7">
-        <f>J177*H177</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J177" s="3">
@@ -9403,7 +9403,7 @@
         <v>4608883.87</v>
       </c>
       <c r="I178" s="7">
-        <f>J178*H178</f>
+        <f t="shared" si="2"/>
         <v>247892.89</v>
       </c>
       <c r="J178" s="3">
@@ -9436,7 +9436,7 @@
         <v>8798553.4800000004</v>
       </c>
       <c r="I179" s="7">
-        <f>J179*H179</f>
+        <f t="shared" si="2"/>
         <v>371025.49</v>
       </c>
       <c r="J179" s="3">
@@ -9469,7 +9469,7 @@
         <v>4149219.77</v>
       </c>
       <c r="I180" s="7">
-        <f>J180*H180</f>
+        <f t="shared" si="2"/>
         <v>144262.79</v>
       </c>
       <c r="J180" s="3">
@@ -9502,7 +9502,7 @@
         <v>4148666.77</v>
       </c>
       <c r="I181" s="7">
-        <f>J181*H181</f>
+        <f t="shared" si="2"/>
         <v>325374.78000000003</v>
       </c>
       <c r="J181" s="3">
@@ -9535,7 +9535,7 @@
         <v>10356565.609999999</v>
       </c>
       <c r="I182" s="7">
-        <f>J182*H182</f>
+        <f t="shared" si="2"/>
         <v>1516672.22</v>
       </c>
       <c r="J182" s="3">
@@ -9568,7 +9568,7 @@
         <v>4709263.25</v>
       </c>
       <c r="I183" s="7">
-        <f>J183*H183</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J183" s="3">
@@ -9601,7 +9601,7 @@
         <v>5737837.9800000004</v>
       </c>
       <c r="I184" s="7">
-        <f>J184*H184</f>
+        <f t="shared" si="2"/>
         <v>514509.14</v>
       </c>
       <c r="J184" s="3">
@@ -9634,7 +9634,7 @@
         <v>3904790.19</v>
       </c>
       <c r="I185" s="7">
-        <f>J185*H185</f>
+        <f t="shared" si="2"/>
         <v>409772.19</v>
       </c>
       <c r="J185" s="3">
@@ -9667,7 +9667,7 @@
         <v>3137767.96</v>
       </c>
       <c r="I186" s="7">
-        <f>J186*H186</f>
+        <f t="shared" si="2"/>
         <v>87241.58</v>
       </c>
       <c r="J186" s="3">
@@ -9700,7 +9700,7 @@
         <v>4718818.12</v>
       </c>
       <c r="I187" s="7">
-        <f>J187*H187</f>
+        <f t="shared" si="2"/>
         <v>347304.71</v>
       </c>
       <c r="J187" s="3">
@@ -9733,7 +9733,7 @@
         <v>4904628.84</v>
       </c>
       <c r="I188" s="7">
-        <f>J188*H188</f>
+        <f t="shared" si="2"/>
         <v>210869.39</v>
       </c>
       <c r="J188" s="3">
@@ -9766,7 +9766,7 @@
         <v>1926680.22</v>
       </c>
       <c r="I189" s="7">
-        <f>J189*H189</f>
+        <f t="shared" si="2"/>
         <v>52994.65</v>
       </c>
       <c r="J189" s="3">
@@ -9799,7 +9799,7 @@
         <v>5332835.1100000003</v>
       </c>
       <c r="I190" s="7">
-        <f>J190*H190</f>
+        <f t="shared" si="2"/>
         <v>492354.39</v>
       </c>
       <c r="J190" s="3">
@@ -9832,7 +9832,7 @@
         <v>6626346.4699999997</v>
       </c>
       <c r="I191" s="7">
-        <f>J191*H191</f>
+        <f t="shared" si="2"/>
         <v>1064309.8799999999</v>
       </c>
       <c r="J191" s="3">
@@ -9865,7 +9865,7 @@
         <v>1260950.56</v>
       </c>
       <c r="I192" s="7">
-        <f>J192*H192</f>
+        <f t="shared" si="2"/>
         <v>1036630.14</v>
       </c>
       <c r="J192" s="3">
@@ -9898,7 +9898,7 @@
         <v>232755.8</v>
       </c>
       <c r="I193" s="7">
-        <f>J193*H193</f>
+        <f t="shared" si="2"/>
         <v>134349.68</v>
       </c>
       <c r="J193" s="3">
@@ -9931,7 +9931,7 @@
         <v>3689117.04</v>
       </c>
       <c r="I194" s="7">
-        <f>J194*H194</f>
+        <f t="shared" si="2"/>
         <v>101787.9</v>
       </c>
       <c r="J194" s="3">
@@ -9964,7 +9964,7 @@
         <v>3689117.04</v>
       </c>
       <c r="I195" s="7">
-        <f>J195*H195</f>
+        <f t="shared" si="2"/>
         <v>28226.09</v>
       </c>
       <c r="J195" s="3">
@@ -9997,7 +9997,7 @@
         <v>3636581.27</v>
       </c>
       <c r="I196" s="7">
-        <f>J196*H196</f>
+        <f t="shared" ref="I196:I259" si="3">J196*H196</f>
         <v>202985.77</v>
       </c>
       <c r="J196" s="3">
@@ -10030,7 +10030,7 @@
         <v>6377960</v>
       </c>
       <c r="I197" s="7">
-        <f>J197*H197</f>
+        <f t="shared" si="3"/>
         <v>638304.06000000006</v>
       </c>
       <c r="J197" s="3">
@@ -10063,7 +10063,7 @@
         <v>3222181.4</v>
       </c>
       <c r="I198" s="7">
-        <f>J198*H198</f>
+        <f t="shared" si="3"/>
         <v>343780.47</v>
       </c>
       <c r="J198" s="3">
@@ -10096,7 +10096,7 @@
         <v>4136500.59</v>
       </c>
       <c r="I199" s="7">
-        <f>J199*H199</f>
+        <f t="shared" si="3"/>
         <v>3864.69</v>
       </c>
       <c r="J199" s="3">
@@ -10129,7 +10129,7 @@
         <v>5584400.7699999996</v>
       </c>
       <c r="I200" s="7">
-        <f>J200*H200</f>
+        <f t="shared" si="3"/>
         <v>216940.53</v>
       </c>
       <c r="J200" s="3">
@@ -10162,7 +10162,7 @@
         <v>4471534.96</v>
       </c>
       <c r="I201" s="7">
-        <f>J201*H201</f>
+        <f t="shared" si="3"/>
         <v>213466.05</v>
       </c>
       <c r="J201" s="3">
@@ -10195,7 +10195,7 @@
         <v>4418456.3899999997</v>
       </c>
       <c r="I202" s="7">
-        <f>J202*H202</f>
+        <f t="shared" si="3"/>
         <v>129593.11</v>
       </c>
       <c r="J202" s="3">
@@ -10228,7 +10228,7 @@
         <v>1946035.5</v>
       </c>
       <c r="I203" s="7">
-        <f>J203*H203</f>
+        <f t="shared" si="3"/>
         <v>192552.59</v>
       </c>
       <c r="J203" s="3">
@@ -10261,7 +10261,7 @@
         <v>2151689.2400000002</v>
       </c>
       <c r="I204" s="7">
-        <f>J204*H204</f>
+        <f t="shared" si="3"/>
         <v>72638.12</v>
       </c>
       <c r="J204" s="3">
@@ -10294,7 +10294,7 @@
         <v>2152135.2799999998</v>
       </c>
       <c r="I205" s="7">
-        <f>J205*H205</f>
+        <f t="shared" si="3"/>
         <v>153225.82999999999</v>
       </c>
       <c r="J205" s="3">
@@ -10327,7 +10327,7 @@
         <v>1963461.04</v>
       </c>
       <c r="I206" s="7">
-        <f>J206*H206</f>
+        <f t="shared" si="3"/>
         <v>63242.73</v>
       </c>
       <c r="J206" s="3">
@@ -10360,7 +10360,7 @@
         <v>9921232.1300000008</v>
       </c>
       <c r="I207" s="7">
-        <f>J207*H207</f>
+        <f t="shared" si="3"/>
         <v>647635.92000000004</v>
       </c>
       <c r="J207" s="3">
@@ -10393,7 +10393,7 @@
         <v>1382520.25</v>
       </c>
       <c r="I208" s="7">
-        <f>J208*H208</f>
+        <f t="shared" si="3"/>
         <v>17753.46</v>
       </c>
       <c r="J208" s="3">
@@ -10426,7 +10426,7 @@
         <v>4250935.96</v>
       </c>
       <c r="I209" s="7">
-        <f>J209*H209</f>
+        <f t="shared" si="3"/>
         <v>181243.08</v>
       </c>
       <c r="J209" s="3">
@@ -10459,7 +10459,7 @@
         <v>261211528.71000001</v>
       </c>
       <c r="I210" s="7">
-        <f>J210*H210</f>
+        <f t="shared" si="3"/>
         <v>35230565.68</v>
       </c>
       <c r="J210" s="3">
@@ -10492,7 +10492,7 @@
         <v>86188462.090000004</v>
       </c>
       <c r="I211" s="7">
-        <f>J211*H211</f>
+        <f t="shared" si="3"/>
         <v>15375096.550000001</v>
       </c>
       <c r="J211" s="3">
@@ -10525,7 +10525,7 @@
         <v>22607449.82</v>
       </c>
       <c r="I212" s="7">
-        <f>J212*H212</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J212" s="3">
@@ -10558,7 +10558,7 @@
         <v>2796062.25</v>
       </c>
       <c r="I213" s="7">
-        <f>J213*H213</f>
+        <f t="shared" si="3"/>
         <v>584753.74</v>
       </c>
       <c r="J213" s="3">
@@ -10591,7 +10591,7 @@
         <v>408190</v>
       </c>
       <c r="I214" s="7">
-        <f>J214*H214</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J214" s="3">
@@ -10624,7 +10624,7 @@
         <v>1235108.03</v>
       </c>
       <c r="I215" s="7">
-        <f>J215*H215</f>
+        <f t="shared" si="3"/>
         <v>427598.12</v>
       </c>
       <c r="J215" s="3">
@@ -10657,7 +10657,7 @@
         <v>6282105.71</v>
       </c>
       <c r="I216" s="7">
-        <f>J216*H216</f>
+        <f t="shared" si="3"/>
         <v>963731.37</v>
       </c>
       <c r="J216" s="3">
@@ -10690,7 +10690,7 @@
         <v>633849.35</v>
       </c>
       <c r="I217" s="7">
-        <f>J217*H217</f>
+        <f t="shared" si="3"/>
         <v>499561.22</v>
       </c>
       <c r="J217" s="3">
@@ -10723,7 +10723,7 @@
         <v>1495517.95</v>
       </c>
       <c r="I218" s="7">
-        <f>J218*H218</f>
+        <f t="shared" si="3"/>
         <v>11075.11</v>
       </c>
       <c r="J218" s="3">
@@ -10756,7 +10756,7 @@
         <v>5130596.7300000004</v>
       </c>
       <c r="I219" s="7">
-        <f>J219*H219</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J219" s="3">
@@ -10789,7 +10789,7 @@
         <v>113812.46</v>
       </c>
       <c r="I220" s="7">
-        <f>J220*H220</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J220" s="3">
@@ -10822,7 +10822,7 @@
         <v>14945.71</v>
       </c>
       <c r="I221" s="7">
-        <f>J221*H221</f>
+        <f t="shared" si="3"/>
         <v>3167.65</v>
       </c>
       <c r="J221" s="3">
@@ -10855,7 +10855,7 @@
         <v>24308.7</v>
       </c>
       <c r="I222" s="7">
-        <f>J222*H222</f>
+        <f t="shared" si="3"/>
         <v>3584.85</v>
       </c>
       <c r="J222" s="3">
@@ -10888,7 +10888,7 @@
         <v>1496107.81</v>
       </c>
       <c r="I223" s="7">
-        <f>J223*H223</f>
+        <f t="shared" si="3"/>
         <v>45348.33</v>
       </c>
       <c r="J223" s="3">
@@ -10921,7 +10921,7 @@
         <v>3198072.94</v>
       </c>
       <c r="I224" s="7">
-        <f>J224*H224</f>
+        <f t="shared" si="3"/>
         <v>62723.96</v>
       </c>
       <c r="J224" s="3">
@@ -10954,7 +10954,7 @@
         <v>116479.19</v>
       </c>
       <c r="I225" s="7">
-        <f>J225*H225</f>
+        <f t="shared" si="3"/>
         <v>85792.15</v>
       </c>
       <c r="J225" s="3">
@@ -10987,7 +10987,7 @@
         <v>40919.65</v>
       </c>
       <c r="I226" s="7">
-        <f>J226*H226</f>
+        <f t="shared" si="3"/>
         <v>15365.470000000001</v>
       </c>
       <c r="J226" s="3">
@@ -11020,7 +11020,7 @@
         <v>56159.92</v>
       </c>
       <c r="I227" s="7">
-        <f>J227*H227</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J227" s="3">
@@ -11053,7 +11053,7 @@
         <v>198521.05</v>
       </c>
       <c r="I228" s="7">
-        <f>J228*H228</f>
+        <f t="shared" si="3"/>
         <v>78393.83</v>
       </c>
       <c r="J228" s="3">
@@ -11086,7 +11086,7 @@
         <v>364630.5</v>
       </c>
       <c r="I229" s="7">
-        <f>J229*H229</f>
+        <f t="shared" si="3"/>
         <v>116063.86</v>
       </c>
       <c r="J229" s="3">
@@ -11119,7 +11119,7 @@
         <v>175630.36</v>
       </c>
       <c r="I230" s="7">
-        <f>J230*H230</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J230" s="3">
@@ -11152,7 +11152,7 @@
         <v>2163122.36</v>
       </c>
       <c r="I231" s="7">
-        <f>J231*H231</f>
+        <f t="shared" si="3"/>
         <v>271652.65999999997</v>
       </c>
       <c r="J231" s="3">
@@ -11185,7 +11185,7 @@
         <v>7969478</v>
       </c>
       <c r="I232" s="7">
-        <f>J232*H232</f>
+        <f t="shared" si="3"/>
         <v>74807.53</v>
       </c>
       <c r="J232" s="3">
@@ -11218,7 +11218,7 @@
         <v>19678.52</v>
       </c>
       <c r="I233" s="7">
-        <f>J233*H233</f>
+        <f t="shared" si="3"/>
         <v>11590.35</v>
       </c>
       <c r="J233" s="3">
@@ -11251,7 +11251,7 @@
         <v>24162.23</v>
       </c>
       <c r="I234" s="7">
-        <f>J234*H234</f>
+        <f t="shared" si="3"/>
         <v>2189.48</v>
       </c>
       <c r="J234" s="3">
@@ -11284,7 +11284,7 @@
         <v>69279.8</v>
       </c>
       <c r="I235" s="7">
-        <f>J235*H235</f>
+        <f t="shared" si="3"/>
         <v>11800.02</v>
       </c>
       <c r="J235" s="3">
@@ -11317,7 +11317,7 @@
         <v>97234.8</v>
       </c>
       <c r="I236" s="7">
-        <f>J236*H236</f>
+        <f t="shared" si="3"/>
         <v>17034.189999999999</v>
       </c>
       <c r="J236" s="3">
@@ -11350,7 +11350,7 @@
         <v>2426706.0499999998</v>
       </c>
       <c r="I237" s="7">
-        <f>J237*H237</f>
+        <f t="shared" si="3"/>
         <v>1996677.84</v>
       </c>
       <c r="J237" s="3">
@@ -11383,7 +11383,7 @@
         <v>23322.23</v>
       </c>
       <c r="I238" s="7">
-        <f>J238*H238</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J238" s="3">
@@ -11416,7 +11416,7 @@
         <v>141800.75</v>
       </c>
       <c r="I239" s="7">
-        <f>J239*H239</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J239" s="3">
@@ -11449,7 +11449,7 @@
         <v>34126.04</v>
       </c>
       <c r="I240" s="7">
-        <f>J240*H240</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J240" s="3">
@@ -11482,7 +11482,7 @@
         <v>12454.76</v>
       </c>
       <c r="I241" s="7">
-        <f>J241*H241</f>
+        <f t="shared" si="3"/>
         <v>3308.43</v>
       </c>
       <c r="J241" s="3">
@@ -11515,7 +11515,7 @@
         <v>249974.47</v>
       </c>
       <c r="I242" s="7">
-        <f>J242*H242</f>
+        <f t="shared" si="3"/>
         <v>5230.51</v>
       </c>
       <c r="J242" s="3">
@@ -11548,7 +11548,7 @@
         <v>21961930.02</v>
       </c>
       <c r="I243" s="7">
-        <f>J243*H243</f>
+        <f t="shared" si="3"/>
         <v>1356456.97</v>
       </c>
       <c r="J243" s="3">
@@ -11581,7 +11581,7 @@
         <v>8718.33</v>
       </c>
       <c r="I244" s="7">
-        <f>J244*H244</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J244" s="3">
@@ -11614,7 +11614,7 @@
         <v>41980.01</v>
       </c>
       <c r="I245" s="7">
-        <f>J245*H245</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J245" s="3">
@@ -11647,7 +11647,7 @@
         <v>102299.11</v>
       </c>
       <c r="I246" s="7">
-        <f>J246*H246</f>
+        <f t="shared" si="3"/>
         <v>12750.81</v>
       </c>
       <c r="J246" s="3">
@@ -11680,7 +11680,7 @@
         <v>5974691.9000000004</v>
       </c>
       <c r="I247" s="7">
-        <f>J247*H247</f>
+        <f t="shared" si="3"/>
         <v>65904.22</v>
       </c>
       <c r="J247" s="3">
@@ -11713,7 +11713,7 @@
         <v>138357.01999999999</v>
       </c>
       <c r="I248" s="7">
-        <f>J248*H248</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J248" s="3">
@@ -11746,7 +11746,7 @@
         <v>48617.4</v>
       </c>
       <c r="I249" s="7">
-        <f>J249*H249</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J249" s="3">
@@ -11779,7 +11779,7 @@
         <v>278942.33</v>
       </c>
       <c r="I250" s="7">
-        <f>J250*H250</f>
+        <f t="shared" si="3"/>
         <v>16141.03</v>
       </c>
       <c r="J250" s="3">
@@ -11812,7 +11812,7 @@
         <v>4542468.8099999996</v>
       </c>
       <c r="I251" s="7">
-        <f>J251*H251</f>
+        <f t="shared" si="3"/>
         <v>27995.22</v>
       </c>
       <c r="J251" s="3">
@@ -11845,7 +11845,7 @@
         <v>2856531.17</v>
       </c>
       <c r="I252" s="7">
-        <f>J252*H252</f>
+        <f t="shared" si="3"/>
         <v>487148.17</v>
       </c>
       <c r="J252" s="3">
@@ -11878,7 +11878,7 @@
         <v>2615304.14</v>
       </c>
       <c r="I253" s="7">
-        <f>J253*H253</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J253" s="3">
@@ -11911,7 +11911,7 @@
         <v>128025.82</v>
       </c>
       <c r="I254" s="7">
-        <f>J254*H254</f>
+        <f t="shared" si="3"/>
         <v>3596.7</v>
       </c>
       <c r="J254" s="3">
@@ -11944,7 +11944,7 @@
         <v>9030591.4199999999</v>
       </c>
       <c r="I255" s="7">
-        <f>J255*H255</f>
+        <f t="shared" si="3"/>
         <v>1392213.43</v>
       </c>
       <c r="J255" s="3">
@@ -11977,7 +11977,7 @@
         <v>1084978.31</v>
       </c>
       <c r="I256" s="7">
-        <f>J256*H256</f>
+        <f t="shared" si="3"/>
         <v>401056.3</v>
       </c>
       <c r="J256" s="3">
@@ -12010,7 +12010,7 @@
         <v>1790902.72</v>
       </c>
       <c r="I257" s="7">
-        <f>J257*H257</f>
+        <f t="shared" si="3"/>
         <v>1125012</v>
       </c>
       <c r="J257" s="3">
@@ -12043,7 +12043,7 @@
         <v>116603241.05</v>
       </c>
       <c r="I258" s="7">
-        <f>J258*H258</f>
+        <f t="shared" si="3"/>
         <v>1048721.94</v>
       </c>
       <c r="J258" s="3">
@@ -12076,7 +12076,7 @@
         <v>28249064.34</v>
       </c>
       <c r="I259" s="7">
-        <f>J259*H259</f>
+        <f t="shared" si="3"/>
         <v>74425.42</v>
       </c>
       <c r="J259" s="3">
@@ -12109,7 +12109,7 @@
         <v>138480444.53</v>
       </c>
       <c r="I260" s="7">
-        <f>J260*H260</f>
+        <f t="shared" ref="I260:I323" si="4">J260*H260</f>
         <v>16570949.92</v>
       </c>
       <c r="J260" s="3">
@@ -12142,7 +12142,7 @@
         <v>15672953.34</v>
       </c>
       <c r="I261" s="7">
-        <f>J261*H261</f>
+        <f t="shared" si="4"/>
         <v>2156710.5699999998</v>
       </c>
       <c r="J261" s="3">
@@ -12175,7 +12175,7 @@
         <v>110821854</v>
       </c>
       <c r="I262" s="7">
-        <f>J262*H262</f>
+        <f t="shared" si="4"/>
         <v>3827942.3299999996</v>
       </c>
       <c r="J262" s="3">
@@ -12208,7 +12208,7 @@
         <v>30783984</v>
       </c>
       <c r="I263" s="7">
-        <f>J263*H263</f>
+        <f t="shared" si="4"/>
         <v>1270017.93</v>
       </c>
       <c r="J263" s="3">
@@ -12239,7 +12239,7 @@
         <v>52797378.280000001</v>
       </c>
       <c r="I264" s="7">
-        <f>J264*H264</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J264" s="3">
@@ -12270,7 +12270,7 @@
         <v>2151356.39</v>
       </c>
       <c r="I265" s="7">
-        <f>J265*H265</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J265" s="3">
@@ -12303,7 +12303,7 @@
         <v>30783984</v>
       </c>
       <c r="I266" s="7">
-        <f>J266*H266</f>
+        <f t="shared" si="4"/>
         <v>1056147.95</v>
       </c>
       <c r="J266" s="3">
@@ -12336,7 +12336,7 @@
         <v>10668985.119999999</v>
       </c>
       <c r="I267" s="7">
-        <f>J267*H267</f>
+        <f t="shared" si="4"/>
         <v>1715409.11</v>
       </c>
       <c r="J267" s="3">
@@ -12369,7 +12369,7 @@
         <v>2895782.96</v>
       </c>
       <c r="I268" s="7">
-        <f>J268*H268</f>
+        <f t="shared" si="4"/>
         <v>22145.47</v>
       </c>
       <c r="J268" s="3">
@@ -12402,7 +12402,7 @@
         <v>42395791.829999998</v>
       </c>
       <c r="I269" s="7">
-        <f>J269*H269</f>
+        <f t="shared" si="4"/>
         <v>184561.84</v>
       </c>
       <c r="J269" s="3">
@@ -12435,7 +12435,7 @@
         <v>538290.32999999996</v>
       </c>
       <c r="I270" s="7">
-        <f>J270*H270</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J270" s="3">
@@ -12466,7 +12466,7 @@
         <v>32411.599999999999</v>
       </c>
       <c r="I271" s="7">
-        <f>J271*H271</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J271" s="3">
@@ -12499,7 +12499,7 @@
         <v>1639394.4</v>
       </c>
       <c r="I272" s="7">
-        <f>J272*H272</f>
+        <f t="shared" si="4"/>
         <v>6116.73</v>
       </c>
       <c r="J272" s="3">
@@ -12530,7 +12530,7 @@
         <v>32411.599999999999</v>
       </c>
       <c r="I273" s="7">
-        <f>J273*H273</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J273" s="3">
@@ -12557,7 +12557,7 @@
       <c r="G274" s="4"/>
       <c r="H274" s="6"/>
       <c r="I274" s="7" t="e">
-        <f>J274*H274</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J274" s="3" t="s">
@@ -12584,7 +12584,7 @@
       <c r="G275" s="4"/>
       <c r="H275" s="6"/>
       <c r="I275" s="7" t="e">
-        <f>J275*H275</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J275" s="3" t="s">
@@ -12617,7 +12617,7 @@
         <v>1056010.44</v>
       </c>
       <c r="I276" s="7">
-        <f>J276*H276</f>
+        <f t="shared" si="4"/>
         <v>52023.5</v>
       </c>
       <c r="J276" s="3">
@@ -12650,7 +12650,7 @@
         <v>7846.5</v>
       </c>
       <c r="I277" s="7">
-        <f>J277*H277</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J277" s="3">
@@ -12683,7 +12683,7 @@
         <v>14142614.779999999</v>
       </c>
       <c r="I278" s="7">
-        <f>J278*H278</f>
+        <f t="shared" si="4"/>
         <v>2015324.18</v>
       </c>
       <c r="J278" s="3">
@@ -12716,7 +12716,7 @@
         <v>76977.55</v>
       </c>
       <c r="I279" s="7">
-        <f>J279*H279</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J279" s="3">
@@ -12749,7 +12749,7 @@
         <v>21352799.309999999</v>
       </c>
       <c r="I280" s="7">
-        <f>J280*H280</f>
+        <f t="shared" si="4"/>
         <v>680416.25</v>
       </c>
       <c r="J280" s="3">
@@ -12782,7 +12782,7 @@
         <v>4664178.84</v>
       </c>
       <c r="I281" s="7">
-        <f>J281*H281</f>
+        <f t="shared" si="4"/>
         <v>50906.559999999998</v>
       </c>
       <c r="J281" s="3">
@@ -12815,7 +12815,7 @@
         <v>19891127.199999999</v>
       </c>
       <c r="I282" s="7">
-        <f>J282*H282</f>
+        <f t="shared" si="4"/>
         <v>1344080.29</v>
       </c>
       <c r="J282" s="3">
@@ -12848,7 +12848,7 @@
         <v>405145</v>
       </c>
       <c r="I283" s="7">
-        <f>J283*H283</f>
+        <f t="shared" si="4"/>
         <v>13193.59</v>
       </c>
       <c r="J283" s="3">
@@ -12881,7 +12881,7 @@
         <v>44995215.939999998</v>
       </c>
       <c r="I284" s="7">
-        <f>J284*H284</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J284" s="3">
@@ -12914,7 +12914,7 @@
         <v>137344.16</v>
       </c>
       <c r="I285" s="7">
-        <f>J285*H285</f>
+        <f t="shared" si="4"/>
         <v>351.95</v>
       </c>
       <c r="J285" s="3">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="H286" s="6"/>
       <c r="I286" s="7" t="e">
-        <f>J286*H286</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J286" s="3" t="s">
@@ -12976,7 +12976,7 @@
         <v>16639226.949999999</v>
       </c>
       <c r="I287" s="7">
-        <f>J287*H287</f>
+        <f t="shared" si="4"/>
         <v>964302.75</v>
       </c>
       <c r="J287" s="3">
@@ -13009,7 +13009,7 @@
         <v>4469503.75</v>
       </c>
       <c r="I288" s="7">
-        <f>J288*H288</f>
+        <f t="shared" si="4"/>
         <v>682686.00000000012</v>
       </c>
       <c r="J288" s="3">
@@ -13040,7 +13040,7 @@
         <v>140738.79</v>
       </c>
       <c r="I289" s="7">
-        <f>J289*H289</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J289" s="3">
@@ -13073,7 +13073,7 @@
         <v>4339961.6399999997</v>
       </c>
       <c r="I290" s="7">
-        <f>J290*H290</f>
+        <f t="shared" si="4"/>
         <v>205000</v>
       </c>
       <c r="J290" s="3">
@@ -13106,7 +13106,7 @@
         <v>363617.64</v>
       </c>
       <c r="I291" s="7">
-        <f>J291*H291</f>
+        <f t="shared" si="4"/>
         <v>56197.9</v>
       </c>
       <c r="J291" s="3">
@@ -13139,7 +13139,7 @@
         <v>1208698.17</v>
       </c>
       <c r="I292" s="7">
-        <f>J292*H292</f>
+        <f t="shared" si="4"/>
         <v>159657.13</v>
       </c>
       <c r="J292" s="3">
@@ -13172,7 +13172,7 @@
         <v>23603799.449999999</v>
       </c>
       <c r="I293" s="7">
-        <f>J293*H293</f>
+        <f t="shared" si="4"/>
         <v>1429546.71</v>
       </c>
       <c r="J293" s="3">
@@ -13205,7 +13205,7 @@
         <v>5975970.5800000001</v>
       </c>
       <c r="I294" s="7">
-        <f>J294*H294</f>
+        <f t="shared" si="4"/>
         <v>607324.65</v>
       </c>
       <c r="J294" s="3">
@@ -13238,7 +13238,7 @@
         <v>12117852.449999999</v>
       </c>
       <c r="I295" s="7">
-        <f>J295*H295</f>
+        <f t="shared" si="4"/>
         <v>2894824.88</v>
       </c>
       <c r="J295" s="3">
@@ -13271,7 +13271,7 @@
         <v>3938645.05</v>
       </c>
       <c r="I296" s="7">
-        <f>J296*H296</f>
+        <f t="shared" si="4"/>
         <v>584582.36</v>
       </c>
       <c r="J296" s="3">
@@ -13304,7 +13304,7 @@
         <v>2644022.39</v>
       </c>
       <c r="I297" s="7">
-        <f>J297*H297</f>
+        <f t="shared" si="4"/>
         <v>13656.16</v>
       </c>
       <c r="J297" s="3">
@@ -13337,7 +13337,7 @@
         <v>18564.490000000002</v>
       </c>
       <c r="I298" s="7">
-        <f>J298*H298</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J298" s="3">
@@ -13370,7 +13370,7 @@
         <v>259557.2</v>
       </c>
       <c r="I299" s="7">
-        <f>J299*H299</f>
+        <f t="shared" si="4"/>
         <v>5112.13</v>
       </c>
       <c r="J299" s="3">
@@ -13403,7 +13403,7 @@
         <v>150827.14000000001</v>
       </c>
       <c r="I300" s="7">
-        <f>J300*H300</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J300" s="3">
@@ -13436,7 +13436,7 @@
         <v>32411.599999999999</v>
       </c>
       <c r="I301" s="7">
-        <f>J301*H301</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J301" s="3">
@@ -13469,7 +13469,7 @@
         <v>36463.050000000003</v>
       </c>
       <c r="I302" s="7">
-        <f>J302*H302</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J302" s="3">
@@ -13502,7 +13502,7 @@
         <v>69686.81</v>
       </c>
       <c r="I303" s="7">
-        <f>J303*H303</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J303" s="3">
@@ -13535,7 +13535,7 @@
         <v>15257241</v>
       </c>
       <c r="I304" s="7">
-        <f>J304*H304</f>
+        <f t="shared" si="4"/>
         <v>226326.41</v>
       </c>
       <c r="J304" s="3">
@@ -13568,7 +13568,7 @@
         <v>4018949.97</v>
       </c>
       <c r="I305" s="7">
-        <f>J305*H305</f>
+        <f t="shared" si="4"/>
         <v>1925804.14</v>
       </c>
       <c r="J305" s="3">
@@ -13601,7 +13601,7 @@
         <v>160742.85</v>
       </c>
       <c r="I306" s="7">
-        <f>J306*H306</f>
+        <f t="shared" si="4"/>
         <v>25658.799999999999</v>
       </c>
       <c r="J306" s="3">
@@ -13634,7 +13634,7 @@
         <v>154967.96</v>
       </c>
       <c r="I307" s="7">
-        <f>J307*H307</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J307" s="3">
@@ -13667,7 +13667,7 @@
         <v>139775.03</v>
       </c>
       <c r="I308" s="7">
-        <f>J308*H308</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J308" s="3">
@@ -13700,7 +13700,7 @@
         <v>55170221.310000002</v>
       </c>
       <c r="I309" s="7">
-        <f>J309*H309</f>
+        <f t="shared" si="4"/>
         <v>6765.9400000000005</v>
       </c>
       <c r="J309" s="3">
@@ -13733,7 +13733,7 @@
         <v>101083.68</v>
       </c>
       <c r="I310" s="7">
-        <f>J310*H310</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J310" s="3">
@@ -13766,7 +13766,7 @@
         <v>1142272.54</v>
       </c>
       <c r="I311" s="7">
-        <f>J311*H311</f>
+        <f t="shared" si="4"/>
         <v>62180.69</v>
       </c>
       <c r="J311" s="3">
@@ -13799,7 +13799,7 @@
         <v>71102.95</v>
       </c>
       <c r="I312" s="7">
-        <f>J312*H312</f>
+        <f t="shared" si="4"/>
         <v>11445.249999999998</v>
       </c>
       <c r="J312" s="3">
@@ -13832,7 +13832,7 @@
         <v>31438.36</v>
       </c>
       <c r="I313" s="7">
-        <f>J313*H313</f>
+        <f t="shared" si="4"/>
         <v>10465.549999999999</v>
       </c>
       <c r="J313" s="3">
@@ -13865,7 +13865,7 @@
         <v>2459091.6</v>
       </c>
       <c r="I314" s="7">
-        <f>J314*H314</f>
+        <f t="shared" si="4"/>
         <v>680470.1</v>
       </c>
       <c r="J314" s="3">
@@ -13898,7 +13898,7 @@
         <v>2934525.09</v>
       </c>
       <c r="I315" s="7">
-        <f>J315*H315</f>
+        <f t="shared" si="4"/>
         <v>4356.6000000000004</v>
       </c>
       <c r="J315" s="3">
@@ -13931,7 +13931,7 @@
         <v>1312968.32</v>
       </c>
       <c r="I316" s="7">
-        <f>J316*H316</f>
+        <f t="shared" si="4"/>
         <v>26832.049999999996</v>
       </c>
       <c r="J316" s="3">
@@ -13964,7 +13964,7 @@
         <v>80601.61</v>
       </c>
       <c r="I317" s="7">
-        <f>J317*H317</f>
+        <f t="shared" si="4"/>
         <v>1217.8599999999999</v>
       </c>
       <c r="J317" s="3">
@@ -13997,7 +13997,7 @@
         <v>236402.11</v>
       </c>
       <c r="I318" s="7">
-        <f>J318*H318</f>
+        <f t="shared" si="4"/>
         <v>40249.15</v>
       </c>
       <c r="J318" s="3">
@@ -14030,7 +14030,7 @@
         <v>119765385.83</v>
       </c>
       <c r="I319" s="7">
-        <f>J319*H319</f>
+        <f t="shared" si="4"/>
         <v>7004711.4299999997</v>
       </c>
       <c r="J319" s="3">
@@ -14063,7 +14063,7 @@
         <v>14585.22</v>
       </c>
       <c r="I320" s="7">
-        <f>J320*H320</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J320" s="3">
@@ -14096,7 +14096,7 @@
         <v>825482.94</v>
       </c>
       <c r="I321" s="7">
-        <f>J321*H321</f>
+        <f t="shared" si="4"/>
         <v>20448.79</v>
       </c>
       <c r="J321" s="3">
@@ -14129,7 +14129,7 @@
         <v>1290386.83</v>
       </c>
       <c r="I322" s="7">
-        <f>J322*H322</f>
+        <f t="shared" si="4"/>
         <v>253234.04</v>
       </c>
       <c r="J322" s="3">
@@ -14154,7 +14154,7 @@
       <c r="G323" s="4"/>
       <c r="H323" s="6"/>
       <c r="I323" s="7" t="e">
-        <f>J323*H323</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="J323" s="3" t="s">
@@ -14187,7 +14187,7 @@
         <v>71913.240000000005</v>
       </c>
       <c r="I324" s="7">
-        <f>J324*H324</f>
+        <f t="shared" ref="I324:I387" si="5">J324*H324</f>
         <v>6928.32</v>
       </c>
       <c r="J324" s="3">
@@ -14220,7 +14220,7 @@
         <v>115829.27</v>
       </c>
       <c r="I325" s="7">
-        <f>J325*H325</f>
+        <f t="shared" si="5"/>
         <v>55574</v>
       </c>
       <c r="J325" s="3">
@@ -14253,7 +14253,7 @@
         <v>371112.82</v>
       </c>
       <c r="I326" s="7">
-        <f>J326*H326</f>
+        <f t="shared" si="5"/>
         <v>8300</v>
       </c>
       <c r="J326" s="3">
@@ -14286,7 +14286,7 @@
         <v>20295680.809999999</v>
       </c>
       <c r="I327" s="7">
-        <f>J327*H327</f>
+        <f t="shared" si="5"/>
         <v>12500.000000000002</v>
       </c>
       <c r="J327" s="3">
@@ -14319,7 +14319,7 @@
         <v>22145760</v>
       </c>
       <c r="I328" s="7">
-        <f>J328*H328</f>
+        <f t="shared" si="5"/>
         <v>66500</v>
       </c>
       <c r="J328" s="3">
@@ -14352,7 +14352,7 @@
         <v>1118605.3500000001</v>
       </c>
       <c r="I329" s="7">
-        <f>J329*H329</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J329" s="3">
@@ -14385,7 +14385,7 @@
         <v>93445229.650000006</v>
       </c>
       <c r="I330" s="7">
-        <f>J330*H330</f>
+        <f t="shared" si="5"/>
         <v>3545587.04</v>
       </c>
       <c r="J330" s="3">
@@ -14418,7 +14418,7 @@
         <v>22976.25</v>
       </c>
       <c r="I331" s="7">
-        <f>J331*H331</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J331" s="3">
@@ -14451,7 +14451,7 @@
         <v>113440.6</v>
       </c>
       <c r="I332" s="7">
-        <f>J332*H332</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J332" s="3">
@@ -14484,7 +14484,7 @@
         <v>2770478.34</v>
       </c>
       <c r="I333" s="7">
-        <f>J333*H333</f>
+        <f t="shared" si="5"/>
         <v>121325.93</v>
       </c>
       <c r="J333" s="3">
@@ -14517,7 +14517,7 @@
         <v>156725.35</v>
       </c>
       <c r="I334" s="7">
-        <f>J334*H334</f>
+        <f t="shared" si="5"/>
         <v>1062.53</v>
       </c>
       <c r="J334" s="3">
@@ -14550,7 +14550,7 @@
         <v>34873.33</v>
       </c>
       <c r="I335" s="7">
-        <f>J335*H335</f>
+        <f t="shared" si="5"/>
         <v>24673.97</v>
       </c>
       <c r="J335" s="3">
@@ -14583,7 +14583,7 @@
         <v>88321.61</v>
       </c>
       <c r="I336" s="7">
-        <f>J336*H336</f>
+        <f t="shared" si="5"/>
         <v>50039.42</v>
       </c>
       <c r="J336" s="3">
@@ -14616,7 +14616,7 @@
         <v>66922036.799999997</v>
       </c>
       <c r="I337" s="7">
-        <f>J337*H337</f>
+        <f t="shared" si="5"/>
         <v>3133534.67</v>
       </c>
       <c r="J337" s="3">
@@ -14649,7 +14649,7 @@
         <v>19777.25</v>
       </c>
       <c r="I338" s="7">
-        <f>J338*H338</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J338" s="3">
@@ -14682,7 +14682,7 @@
         <v>19777.25</v>
       </c>
       <c r="I339" s="7">
-        <f>J339*H339</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J339" s="3">
@@ -14715,7 +14715,7 @@
         <v>1032106.89</v>
       </c>
       <c r="I340" s="7">
-        <f>J340*H340</f>
+        <f t="shared" si="5"/>
         <v>7261.01</v>
       </c>
       <c r="J340" s="3">
@@ -14748,7 +14748,7 @@
         <v>28967.87</v>
       </c>
       <c r="I341" s="7">
-        <f>J341*H341</f>
+        <f t="shared" si="5"/>
         <v>23708.26</v>
       </c>
       <c r="J341" s="3">
@@ -14781,7 +14781,7 @@
         <v>19678.52</v>
       </c>
       <c r="I342" s="7">
-        <f>J342*H342</f>
+        <f t="shared" si="5"/>
         <v>3519.63</v>
       </c>
       <c r="J342" s="3">
@@ -14814,7 +14814,7 @@
         <v>2341992</v>
       </c>
       <c r="I343" s="7">
-        <f>J343*H343</f>
+        <f t="shared" si="5"/>
         <v>138441.14000000001</v>
       </c>
       <c r="J343" s="3">
@@ -14847,7 +14847,7 @@
         <v>30265.07</v>
       </c>
       <c r="I344" s="7">
-        <f>J344*H344</f>
+        <f t="shared" si="5"/>
         <v>2111.7800000000002</v>
       </c>
       <c r="J344" s="3">
@@ -14880,7 +14880,7 @@
         <v>317025.96000000002</v>
       </c>
       <c r="I345" s="7">
-        <f>J345*H345</f>
+        <f t="shared" si="5"/>
         <v>11947.660000000002</v>
       </c>
       <c r="J345" s="3">
@@ -14913,7 +14913,7 @@
         <v>563961.84</v>
       </c>
       <c r="I346" s="7">
-        <f>J346*H346</f>
+        <f t="shared" si="5"/>
         <v>39077.410000000003</v>
       </c>
       <c r="J346" s="3">
@@ -14946,7 +14946,7 @@
         <v>346601.55</v>
       </c>
       <c r="I347" s="7">
-        <f>J347*H347</f>
+        <f t="shared" si="5"/>
         <v>16106.24</v>
       </c>
       <c r="J347" s="3">
@@ -14979,7 +14979,7 @@
         <v>1325837.01</v>
       </c>
       <c r="I348" s="7">
-        <f>J348*H348</f>
+        <f t="shared" si="5"/>
         <v>37308.39</v>
       </c>
       <c r="J348" s="3">
@@ -15012,7 +15012,7 @@
         <v>31345.07</v>
       </c>
       <c r="I349" s="7">
-        <f>J349*H349</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J349" s="3">
@@ -15045,7 +15045,7 @@
         <v>35543.07</v>
       </c>
       <c r="I350" s="7">
-        <f>J350*H350</f>
+        <f t="shared" si="5"/>
         <v>400.75</v>
       </c>
       <c r="J350" s="3">
@@ -15078,7 +15078,7 @@
         <v>564772.13</v>
       </c>
       <c r="I351" s="7">
-        <f>J351*H351</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J351" s="3">
@@ -15111,7 +15111,7 @@
         <v>42363299.719999999</v>
       </c>
       <c r="I352" s="7">
-        <f>J352*H352</f>
+        <f t="shared" si="5"/>
         <v>1220510.99</v>
       </c>
       <c r="J352" s="3">
@@ -15144,7 +15144,7 @@
         <v>144984.24</v>
       </c>
       <c r="I353" s="7">
-        <f>J353*H353</f>
+        <f t="shared" si="5"/>
         <v>365181.27</v>
       </c>
       <c r="J353" s="3">
@@ -15177,7 +15177,7 @@
         <v>3743686.72</v>
       </c>
       <c r="I354" s="7">
-        <f>J354*H354</f>
+        <f t="shared" si="5"/>
         <v>276125</v>
       </c>
       <c r="J354" s="3">
@@ -15210,7 +15210,7 @@
         <v>4626780.71</v>
       </c>
       <c r="I355" s="7">
-        <f>J355*H355</f>
+        <f t="shared" si="5"/>
         <v>239514.51</v>
       </c>
       <c r="J355" s="3">
@@ -15237,7 +15237,7 @@
       <c r="G356" s="4"/>
       <c r="H356" s="6"/>
       <c r="I356" s="7" t="e">
-        <f>J356*H356</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="J356" s="3" t="s">
@@ -15270,7 +15270,7 @@
         <v>2262162.5</v>
       </c>
       <c r="I357" s="7">
-        <f>J357*H357</f>
+        <f t="shared" si="5"/>
         <v>595511.77</v>
       </c>
       <c r="J357" s="3">
@@ -15303,7 +15303,7 @@
         <v>755292.42</v>
       </c>
       <c r="I358" s="7">
-        <f>J358*H358</f>
+        <f t="shared" si="5"/>
         <v>176410.12</v>
       </c>
       <c r="J358" s="3">
@@ -15336,7 +15336,7 @@
         <v>26334.43</v>
       </c>
       <c r="I359" s="7">
-        <f>J359*H359</f>
+        <f t="shared" si="5"/>
         <v>4928.13</v>
       </c>
       <c r="J359" s="3">
@@ -15369,7 +15369,7 @@
         <v>76977.55</v>
       </c>
       <c r="I360" s="7">
-        <f>J360*H360</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J360" s="3">
@@ -15394,7 +15394,7 @@
       <c r="G361" s="4"/>
       <c r="H361" s="6"/>
       <c r="I361" s="7" t="e">
-        <f>J361*H361</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="J361" s="3" t="s">
@@ -15427,7 +15427,7 @@
         <v>435936.02</v>
       </c>
       <c r="I362" s="7">
-        <f>J362*H362</f>
+        <f t="shared" si="5"/>
         <v>14999.5</v>
       </c>
       <c r="J362" s="3">
@@ -15460,7 +15460,7 @@
         <v>907398.54</v>
       </c>
       <c r="I363" s="7">
-        <f>J363*H363</f>
+        <f t="shared" si="5"/>
         <v>443567.01</v>
       </c>
       <c r="J363" s="3">
@@ -15493,7 +15493,7 @@
         <v>274485.74</v>
       </c>
       <c r="I364" s="7">
-        <f>J364*H364</f>
+        <f t="shared" si="5"/>
         <v>599.4</v>
       </c>
       <c r="J364" s="3">
@@ -15526,7 +15526,7 @@
         <v>112832.88</v>
       </c>
       <c r="I365" s="7">
-        <f>J365*H365</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J365" s="3">
@@ -15559,7 +15559,7 @@
         <v>89862881.980000004</v>
       </c>
       <c r="I366" s="7">
-        <f>J366*H366</f>
+        <f t="shared" si="5"/>
         <v>2831136.6200000006</v>
       </c>
       <c r="J366" s="3">
@@ -15592,7 +15592,7 @@
         <v>234984.1</v>
       </c>
       <c r="I367" s="7">
-        <f>J367*H367</f>
+        <f t="shared" si="5"/>
         <v>4007.5000000000005</v>
       </c>
       <c r="J367" s="3">
@@ -15625,7 +15625,7 @@
         <v>25232575.82</v>
       </c>
       <c r="I368" s="7">
-        <f>J368*H368</f>
+        <f t="shared" si="5"/>
         <v>1759969.41</v>
       </c>
       <c r="J368" s="3">
@@ -15658,7 +15658,7 @@
         <v>15848538.65</v>
       </c>
       <c r="I369" s="7">
-        <f>J369*H369</f>
+        <f t="shared" si="5"/>
         <v>279879.19</v>
       </c>
       <c r="J369" s="3">
@@ -15691,7 +15691,7 @@
         <v>2419940.67</v>
       </c>
       <c r="I370" s="7">
-        <f>J370*H370</f>
+        <f t="shared" si="5"/>
         <v>127309.29</v>
       </c>
       <c r="J370" s="3">
@@ -15724,7 +15724,7 @@
         <v>1385078.72</v>
       </c>
       <c r="I371" s="7">
-        <f>J371*H371</f>
+        <f t="shared" si="5"/>
         <v>102867.09000000001</v>
       </c>
       <c r="J371" s="3">
@@ -15757,7 +15757,7 @@
         <v>60237457.049999997</v>
       </c>
       <c r="I372" s="7">
-        <f>J372*H372</f>
+        <f t="shared" si="5"/>
         <v>1794500</v>
       </c>
       <c r="J372" s="3">
@@ -15790,7 +15790,7 @@
         <v>19904584.949999999</v>
       </c>
       <c r="I373" s="7">
-        <f>J373*H373</f>
+        <f t="shared" si="5"/>
         <v>6304757.7400000012</v>
       </c>
       <c r="J373" s="3">
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="I374" s="7" t="e">
-        <f>J374*H374</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="J374" s="3" t="s">
@@ -15856,7 +15856,7 @@
         <v>578179.28</v>
       </c>
       <c r="I375" s="7">
-        <f>J375*H375</f>
+        <f t="shared" si="5"/>
         <v>22373.3</v>
       </c>
       <c r="J375" s="3">
@@ -15889,7 +15889,7 @@
         <v>74164.679999999993</v>
       </c>
       <c r="I376" s="7">
-        <f>J376*H376</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J376" s="3">
@@ -15922,7 +15922,7 @@
         <v>35449.78</v>
       </c>
       <c r="I377" s="7">
-        <f>J377*H377</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J377" s="3">
@@ -15955,7 +15955,7 @@
         <v>872074.61</v>
       </c>
       <c r="I378" s="7">
-        <f>J378*H378</f>
+        <f t="shared" si="5"/>
         <v>52337.95</v>
       </c>
       <c r="J378" s="3">
@@ -15988,7 +15988,7 @@
         <v>66200313.159999996</v>
       </c>
       <c r="I379" s="7">
-        <f>J379*H379</f>
+        <f t="shared" si="5"/>
         <v>246280.46</v>
       </c>
       <c r="J379" s="3">
@@ -16021,7 +16021,7 @@
         <v>11253462.5</v>
       </c>
       <c r="I380" s="7">
-        <f>J380*H380</f>
+        <f t="shared" si="5"/>
         <v>1048726.55</v>
       </c>
       <c r="J380" s="3">
@@ -16054,7 +16054,7 @@
         <v>7240027.6299999999</v>
       </c>
       <c r="I381" s="7">
-        <f>J381*H381</f>
+        <f t="shared" si="5"/>
         <v>405753.85</v>
       </c>
       <c r="J381" s="3">
@@ -16087,7 +16087,7 @@
         <v>33024.269999999997</v>
       </c>
       <c r="I382" s="7">
-        <f>J382*H382</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J382" s="3">
@@ -16120,7 +16120,7 @@
         <v>2930723.61</v>
       </c>
       <c r="I383" s="7">
-        <f>J383*H383</f>
+        <f t="shared" si="5"/>
         <v>937463.02</v>
       </c>
       <c r="J383" s="3">
@@ -16153,7 +16153,7 @@
         <v>1918969.7</v>
       </c>
       <c r="I384" s="7">
-        <f>J384*H384</f>
+        <f t="shared" si="5"/>
         <v>431881.26</v>
       </c>
       <c r="J384" s="3">
@@ -16186,7 +16186,7 @@
         <v>25875566.329999998</v>
       </c>
       <c r="I385" s="7">
-        <f>J385*H385</f>
+        <f t="shared" si="5"/>
         <v>142051.88</v>
       </c>
       <c r="J385" s="3">
@@ -16219,7 +16219,7 @@
         <v>722681.49</v>
       </c>
       <c r="I386" s="7">
-        <f>J386*H386</f>
+        <f t="shared" si="5"/>
         <v>13740</v>
       </c>
       <c r="J386" s="3">
@@ -16252,7 +16252,7 @@
         <v>3964552.03</v>
       </c>
       <c r="I387" s="7">
-        <f>J387*H387</f>
+        <f t="shared" si="5"/>
         <v>1013.63</v>
       </c>
       <c r="J387" s="3">
@@ -16285,7 +16285,7 @@
         <v>1055842.08</v>
       </c>
       <c r="I388" s="7">
-        <f>J388*H388</f>
+        <f t="shared" ref="I388:I451" si="6">J388*H388</f>
         <v>0</v>
       </c>
       <c r="J388" s="3">
@@ -16318,7 +16318,7 @@
         <v>26155</v>
       </c>
       <c r="I389" s="7">
-        <f>J389*H389</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J389" s="3">
@@ -16351,7 +16351,7 @@
         <v>200546.78</v>
       </c>
       <c r="I390" s="7">
-        <f>J390*H390</f>
+        <f t="shared" si="6"/>
         <v>1126.25</v>
       </c>
       <c r="J390" s="3">
@@ -16384,7 +16384,7 @@
         <v>178061.23</v>
       </c>
       <c r="I391" s="7">
-        <f>J391*H391</f>
+        <f t="shared" si="6"/>
         <v>563.13</v>
       </c>
       <c r="J391" s="3">
@@ -16417,7 +16417,7 @@
         <v>4968217.1500000004</v>
       </c>
       <c r="I392" s="7">
-        <f>J392*H392</f>
+        <f t="shared" si="6"/>
         <v>560313.81999999995</v>
       </c>
       <c r="J392" s="3">
@@ -16450,7 +16450,7 @@
         <v>1400384.62</v>
       </c>
       <c r="I393" s="7">
-        <f>J393*H393</f>
+        <f t="shared" si="6"/>
         <v>166844.82</v>
       </c>
       <c r="J393" s="3">
@@ -16483,7 +16483,7 @@
         <v>239845.84</v>
       </c>
       <c r="I394" s="7">
-        <f>J394*H394</f>
+        <f t="shared" si="6"/>
         <v>10591.25</v>
       </c>
       <c r="J394" s="3">
@@ -16516,7 +16516,7 @@
         <v>9795.33</v>
       </c>
       <c r="I395" s="7">
-        <f>J395*H395</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J395" s="3">
@@ -16549,7 +16549,7 @@
         <v>18682.14</v>
       </c>
       <c r="I396" s="7">
-        <f>J396*H396</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J396" s="3">
@@ -16582,7 +16582,7 @@
         <v>810290</v>
       </c>
       <c r="I397" s="7">
-        <f>J397*H397</f>
+        <f t="shared" si="6"/>
         <v>2061</v>
       </c>
       <c r="J397" s="3">
@@ -16615,7 +16615,7 @@
         <v>37315.56</v>
       </c>
       <c r="I398" s="7">
-        <f>J398*H398</f>
+        <f t="shared" si="6"/>
         <v>1717.5</v>
       </c>
       <c r="J398" s="3">
@@ -16648,7 +16648,7 @@
         <v>101286.25</v>
       </c>
       <c r="I399" s="7">
-        <f>J399*H399</f>
+        <f t="shared" si="6"/>
         <v>18320</v>
       </c>
       <c r="J399" s="3">
@@ -16681,7 +16681,7 @@
         <v>10815870.279999999</v>
       </c>
       <c r="I400" s="7">
-        <f>J400*H400</f>
+        <f t="shared" si="6"/>
         <v>1127156.1100000001</v>
       </c>
       <c r="J400" s="3">
@@ -16714,7 +16714,7 @@
         <v>14616277.619999999</v>
       </c>
       <c r="I401" s="7">
-        <f>J401*H401</f>
+        <f t="shared" si="6"/>
         <v>1593463.27</v>
       </c>
       <c r="J401" s="3">
@@ -16747,7 +16747,7 @@
         <v>17038512.239999998</v>
       </c>
       <c r="I402" s="7">
-        <f>J402*H402</f>
+        <f t="shared" si="6"/>
         <v>1605583.5400000003</v>
       </c>
       <c r="J402" s="3">
@@ -16780,7 +16780,7 @@
         <v>156258.91</v>
       </c>
       <c r="I403" s="7">
-        <f>J403*H403</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J403" s="3">
@@ -16813,7 +16813,7 @@
         <v>327005.2</v>
       </c>
       <c r="I404" s="7">
-        <f>J404*H404</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J404" s="3">
@@ -16846,7 +16846,7 @@
         <v>37782</v>
       </c>
       <c r="I405" s="7">
-        <f>J405*H405</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J405" s="3">
@@ -16879,7 +16879,7 @@
         <v>658360.63</v>
       </c>
       <c r="I406" s="7">
-        <f>J406*H406</f>
+        <f t="shared" si="6"/>
         <v>113355</v>
       </c>
       <c r="J406" s="3">
@@ -16912,7 +16912,7 @@
         <v>141800.75</v>
       </c>
       <c r="I407" s="7">
-        <f>J407*H407</f>
+        <f t="shared" si="6"/>
         <v>37975.46</v>
       </c>
       <c r="J407" s="3">
@@ -16945,7 +16945,7 @@
         <v>610958.66</v>
       </c>
       <c r="I408" s="7">
-        <f>J408*H408</f>
+        <f t="shared" si="6"/>
         <v>208712.67</v>
       </c>
       <c r="J408" s="3">
@@ -16978,7 +16978,7 @@
         <v>31601.31</v>
       </c>
       <c r="I409" s="7">
-        <f>J409*H409</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J409" s="3">
@@ -17011,7 +17011,7 @@
         <v>138559.59</v>
       </c>
       <c r="I410" s="7">
-        <f>J410*H410</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J410" s="3">
@@ -17044,7 +17044,7 @@
         <v>235186.67</v>
       </c>
       <c r="I411" s="7">
-        <f>J411*H411</f>
+        <f t="shared" si="6"/>
         <v>17827.650000000001</v>
       </c>
       <c r="J411" s="3">
@@ -17077,7 +17077,7 @@
         <v>54107.56</v>
       </c>
       <c r="I412" s="7">
-        <f>J412*H412</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J412" s="3">
@@ -17110,7 +17110,7 @@
         <v>2703819.54</v>
       </c>
       <c r="I413" s="7">
-        <f>J413*H413</f>
+        <f t="shared" si="6"/>
         <v>169927.97</v>
       </c>
       <c r="J413" s="3">
@@ -17137,7 +17137,7 @@
       <c r="G414" s="4"/>
       <c r="H414" s="6"/>
       <c r="I414" s="7" t="e">
-        <f>J414*H414</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J414" s="3" t="s">
@@ -17170,7 +17170,7 @@
         <v>17690770.940000001</v>
       </c>
       <c r="I415" s="7">
-        <f>J415*H415</f>
+        <f t="shared" si="6"/>
         <v>1003535.98</v>
       </c>
       <c r="J415" s="3">
@@ -17203,7 +17203,7 @@
         <v>14084976.32</v>
       </c>
       <c r="I416" s="7">
-        <f>J416*H416</f>
+        <f t="shared" si="6"/>
         <v>635953.4</v>
       </c>
       <c r="J416" s="3">
@@ -17236,7 +17236,7 @@
         <v>10522410.539999999</v>
       </c>
       <c r="I417" s="7">
-        <f>J417*H417</f>
+        <f t="shared" si="6"/>
         <v>525384.38</v>
       </c>
       <c r="J417" s="3">
@@ -17269,7 +17269,7 @@
         <v>17335911.66</v>
       </c>
       <c r="I418" s="7">
-        <f>J418*H418</f>
+        <f t="shared" si="6"/>
         <v>3847363.87</v>
       </c>
       <c r="J418" s="3">
@@ -17302,7 +17302,7 @@
         <v>132077.26999999999</v>
       </c>
       <c r="I419" s="7">
-        <f>J419*H419</f>
+        <f t="shared" si="6"/>
         <v>462.06</v>
       </c>
       <c r="J419" s="3">
@@ -17335,7 +17335,7 @@
         <v>16546000.74</v>
       </c>
       <c r="I420" s="7">
-        <f>J420*H420</f>
+        <f t="shared" si="6"/>
         <v>1012515.83</v>
       </c>
       <c r="J420" s="3">
@@ -17368,7 +17368,7 @@
         <v>37133314.810000002</v>
       </c>
       <c r="I421" s="7">
-        <f>J421*H421</f>
+        <f t="shared" si="6"/>
         <v>241978.37</v>
       </c>
       <c r="J421" s="3">
@@ -17401,7 +17401,7 @@
         <v>14063687.99</v>
       </c>
       <c r="I422" s="7">
-        <f>J422*H422</f>
+        <f t="shared" si="6"/>
         <v>2140920.4900000002</v>
       </c>
       <c r="J422" s="3">
@@ -17434,7 +17434,7 @@
         <v>2107792.7999999998</v>
       </c>
       <c r="I423" s="7">
-        <f>J423*H423</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J423" s="3">
@@ -17467,7 +17467,7 @@
         <v>3716741.3</v>
       </c>
       <c r="I424" s="7">
-        <f>J424*H424</f>
+        <f t="shared" si="6"/>
         <v>522394.81000000006</v>
       </c>
       <c r="J424" s="3">
@@ -17500,7 +17500,7 @@
         <v>20137716.32</v>
       </c>
       <c r="I425" s="7">
-        <f>J425*H425</f>
+        <f t="shared" si="6"/>
         <v>1689.4200000000003</v>
       </c>
       <c r="J425" s="3">
@@ -17533,7 +17533,7 @@
         <v>357355.51</v>
       </c>
       <c r="I426" s="7">
-        <f>J426*H426</f>
+        <f t="shared" si="6"/>
         <v>98287.579999999987</v>
       </c>
       <c r="J426" s="3">
@@ -17566,7 +17566,7 @@
         <v>460649.87</v>
       </c>
       <c r="I427" s="7">
-        <f>J427*H427</f>
+        <f t="shared" si="6"/>
         <v>46621.45</v>
       </c>
       <c r="J427" s="3">
@@ -17599,7 +17599,7 @@
         <v>82094.23</v>
       </c>
       <c r="I428" s="7">
-        <f>J428*H428</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J428" s="3">
@@ -17632,7 +17632,7 @@
         <v>182315.25</v>
       </c>
       <c r="I429" s="7">
-        <f>J429*H429</f>
+        <f t="shared" si="6"/>
         <v>58808.93</v>
       </c>
       <c r="J429" s="3">
@@ -17665,7 +17665,7 @@
         <v>878354.36</v>
       </c>
       <c r="I430" s="7">
-        <f>J430*H430</f>
+        <f t="shared" si="6"/>
         <v>21943.64</v>
       </c>
       <c r="J430" s="3">
@@ -17698,7 +17698,7 @@
         <v>2054512.48</v>
       </c>
       <c r="I431" s="7">
-        <f>J431*H431</f>
+        <f t="shared" si="6"/>
         <v>570410.34</v>
       </c>
       <c r="J431" s="3">
@@ -17731,7 +17731,7 @@
         <v>213106.27</v>
       </c>
       <c r="I432" s="7">
-        <f>J432*H432</f>
+        <f t="shared" si="6"/>
         <v>29918.990000000005</v>
       </c>
       <c r="J432" s="3">
@@ -17764,7 +17764,7 @@
         <v>17187.57</v>
       </c>
       <c r="I433" s="7">
-        <f>J433*H433</f>
+        <f t="shared" si="6"/>
         <v>12475.73</v>
       </c>
       <c r="J433" s="3">
@@ -17797,7 +17797,7 @@
         <v>52241.78</v>
       </c>
       <c r="I434" s="7">
-        <f>J434*H434</f>
+        <f t="shared" si="6"/>
         <v>2217.91</v>
       </c>
       <c r="J434" s="3">
@@ -17830,7 +17830,7 @@
         <v>18808532.850000001</v>
       </c>
       <c r="I435" s="7">
-        <f>J435*H435</f>
+        <f t="shared" si="6"/>
         <v>2882228.14</v>
       </c>
       <c r="J435" s="3">
@@ -17863,7 +17863,7 @@
         <v>1012457.36</v>
       </c>
       <c r="I436" s="7">
-        <f>J436*H436</f>
+        <f t="shared" si="6"/>
         <v>55334.94</v>
       </c>
       <c r="J436" s="3">
@@ -17896,7 +17896,7 @@
         <v>183266150.41999999</v>
       </c>
       <c r="I437" s="7">
-        <f>J437*H437</f>
+        <f t="shared" si="6"/>
         <v>6029542.25</v>
       </c>
       <c r="J437" s="3">
@@ -17929,7 +17929,7 @@
         <v>28360.15</v>
       </c>
       <c r="I438" s="7">
-        <f>J438*H438</f>
+        <f t="shared" si="6"/>
         <v>1680.77</v>
       </c>
       <c r="J438" s="3">
@@ -17962,7 +17962,7 @@
         <v>16556168.42</v>
       </c>
       <c r="I439" s="7">
-        <f>J439*H439</f>
+        <f t="shared" si="6"/>
         <v>1695504.33</v>
       </c>
       <c r="J439" s="3">
@@ -17995,7 +17995,7 @@
         <v>10128.629999999999</v>
       </c>
       <c r="I440" s="7">
-        <f>J440*H440</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J440" s="3">
@@ -18028,7 +18028,7 @@
         <v>37613.379999999997</v>
       </c>
       <c r="I441" s="7">
-        <f>J441*H441</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J441" s="3">
@@ -18061,7 +18061,7 @@
         <v>36755.83</v>
       </c>
       <c r="I442" s="7">
-        <f>J442*H442</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J442" s="3">
@@ -18094,7 +18094,7 @@
         <v>172591.77</v>
       </c>
       <c r="I443" s="7">
-        <f>J443*H443</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J443" s="3">
@@ -18127,7 +18127,7 @@
         <v>709003.75</v>
       </c>
       <c r="I444" s="7">
-        <f>J444*H444</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J444" s="3">
@@ -18160,7 +18160,7 @@
         <v>202572.5</v>
       </c>
       <c r="I445" s="7">
-        <f>J445*H445</f>
+        <f t="shared" si="6"/>
         <v>16354.450000000003</v>
       </c>
       <c r="J445" s="3">
@@ -18193,7 +18193,7 @@
         <v>219561.75</v>
       </c>
       <c r="I446" s="7">
-        <f>J446*H446</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J446" s="3">
@@ -18226,7 +18226,7 @@
         <v>439123.5</v>
       </c>
       <c r="I447" s="7">
-        <f>J447*H447</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J447" s="3">
@@ -18259,7 +18259,7 @@
         <v>51606760.600000001</v>
       </c>
       <c r="I448" s="7">
-        <f>J448*H448</f>
+        <f t="shared" si="6"/>
         <v>666044.55000000005</v>
       </c>
       <c r="J448" s="3">
@@ -18292,7 +18292,7 @@
         <v>3274983.06</v>
       </c>
       <c r="I449" s="7">
-        <f>J449*H449</f>
+        <f t="shared" si="6"/>
         <v>151457.95000000001</v>
       </c>
       <c r="J449" s="3">
@@ -18325,7 +18325,7 @@
         <v>1831245.29</v>
       </c>
       <c r="I450" s="7">
-        <f>J450*H450</f>
+        <f t="shared" si="6"/>
         <v>68027.28</v>
       </c>
       <c r="J450" s="3">
@@ -18356,7 +18356,7 @@
         <v>114745.35</v>
       </c>
       <c r="I451" s="7">
-        <f>J451*H451</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J451" s="3">
@@ -18389,7 +18389,7 @@
         <v>46644.45</v>
       </c>
       <c r="I452" s="7">
-        <f>J452*H452</f>
+        <f t="shared" ref="I452:I515" si="7">J452*H452</f>
         <v>0</v>
       </c>
       <c r="J452" s="3">
@@ -18422,7 +18422,7 @@
         <v>153366.95000000001</v>
       </c>
       <c r="I453" s="7">
-        <f>J453*H453</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J453" s="3">
@@ -18455,7 +18455,7 @@
         <v>352678.72</v>
       </c>
       <c r="I454" s="7">
-        <f>J454*H454</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J454" s="3">
@@ -18488,7 +18488,7 @@
         <v>217765.44</v>
       </c>
       <c r="I455" s="7">
-        <f>J455*H455</f>
+        <f t="shared" si="7"/>
         <v>30896.86</v>
       </c>
       <c r="J455" s="3">
@@ -18521,7 +18521,7 @@
         <v>19285152.620000001</v>
       </c>
       <c r="I456" s="7">
-        <f>J456*H456</f>
+        <f t="shared" si="7"/>
         <v>439296.84</v>
       </c>
       <c r="J456" s="3">
@@ -18554,7 +18554,7 @@
         <v>20822636.969999999</v>
       </c>
       <c r="I457" s="7">
-        <f>J457*H457</f>
+        <f t="shared" si="7"/>
         <v>2250716.02</v>
       </c>
       <c r="J457" s="3">
@@ -18587,7 +18587,7 @@
         <v>7410527.4400000004</v>
       </c>
       <c r="I458" s="7">
-        <f>J458*H458</f>
+        <f t="shared" si="7"/>
         <v>3059129.64</v>
       </c>
       <c r="J458" s="3">
@@ -18620,7 +18620,7 @@
         <v>2289160.33</v>
       </c>
       <c r="I459" s="7">
-        <f>J459*H459</f>
+        <f t="shared" si="7"/>
         <v>808952.97</v>
       </c>
       <c r="J459" s="3">
@@ -18653,7 +18653,7 @@
         <v>135926.15</v>
       </c>
       <c r="I460" s="7">
-        <f>J460*H460</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J460" s="3">
@@ -18686,7 +18686,7 @@
         <v>244099.86</v>
       </c>
       <c r="I461" s="7">
-        <f>J461*H461</f>
+        <f t="shared" si="7"/>
         <v>12911.03</v>
       </c>
       <c r="J461" s="3">
@@ -18719,7 +18719,7 @@
         <v>2201391.0699999998</v>
       </c>
       <c r="I462" s="7">
-        <f>J462*H462</f>
+        <f t="shared" si="7"/>
         <v>369908.97</v>
       </c>
       <c r="J462" s="3">
@@ -18752,7 +18752,7 @@
         <v>401498.7</v>
       </c>
       <c r="I463" s="7">
-        <f>J463*H463</f>
+        <f t="shared" si="7"/>
         <v>35466.74</v>
       </c>
       <c r="J463" s="3">
@@ -18785,7 +18785,7 @@
         <v>251797.62</v>
       </c>
       <c r="I464" s="7">
-        <f>J464*H464</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J464" s="3">
@@ -18818,7 +18818,7 @@
         <v>14696.62</v>
       </c>
       <c r="I465" s="7">
-        <f>J465*H465</f>
+        <f t="shared" si="7"/>
         <v>1353.18</v>
       </c>
       <c r="J465" s="3">
@@ -18851,7 +18851,7 @@
         <v>217360.29</v>
       </c>
       <c r="I466" s="7">
-        <f>J466*H466</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J466" s="3">
@@ -18884,7 +18884,7 @@
         <v>3172124.97</v>
       </c>
       <c r="I467" s="7">
-        <f>J467*H467</f>
+        <f t="shared" si="7"/>
         <v>50115.42</v>
       </c>
       <c r="J467" s="3">
@@ -18917,7 +18917,7 @@
         <v>15902205.6</v>
       </c>
       <c r="I468" s="7">
-        <f>J468*H468</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J468" s="3">
@@ -18950,7 +18950,7 @@
         <v>4445112.2699999996</v>
       </c>
       <c r="I469" s="7">
-        <f>J469*H469</f>
+        <f t="shared" si="7"/>
         <v>129364.91</v>
       </c>
       <c r="J469" s="3">
@@ -18983,7 +18983,7 @@
         <v>125193.7</v>
       </c>
       <c r="I470" s="7">
-        <f>J470*H470</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J470" s="3">
@@ -19016,7 +19016,7 @@
         <v>10960.19</v>
       </c>
       <c r="I471" s="7">
-        <f>J471*H471</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J471" s="3">
@@ -19049,7 +19049,7 @@
         <v>326141.73</v>
       </c>
       <c r="I472" s="7">
-        <f>J472*H472</f>
+        <f t="shared" si="7"/>
         <v>5183.2499999999991</v>
       </c>
       <c r="J472" s="3">
@@ -19082,7 +19082,7 @@
         <v>79289293.230000004</v>
       </c>
       <c r="I473" s="7">
-        <f>J473*H473</f>
+        <f t="shared" si="7"/>
         <v>816311.56</v>
       </c>
       <c r="J473" s="3">
@@ -19115,7 +19115,7 @@
         <v>93508597.599999994</v>
       </c>
       <c r="I474" s="7">
-        <f>J474*H474</f>
+        <f t="shared" si="7"/>
         <v>19013328.390000001</v>
       </c>
       <c r="J474" s="3">
@@ -19148,7 +19148,7 @@
         <v>656886.31999999995</v>
       </c>
       <c r="I475" s="7">
-        <f>J475*H475</f>
+        <f t="shared" si="7"/>
         <v>8033.04</v>
       </c>
       <c r="J475" s="3">
@@ -19179,7 +19179,7 @@
         <v>7000000</v>
       </c>
       <c r="I476" s="7">
-        <f>J476*H476</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J476" s="3">
@@ -19212,7 +19212,7 @@
         <v>7904372.1600000001</v>
       </c>
       <c r="I477" s="7">
-        <f>J477*H477</f>
+        <f t="shared" si="7"/>
         <v>546174.68999999994</v>
       </c>
       <c r="J477" s="3">
@@ -19245,7 +19245,7 @@
         <v>26483629.289999999</v>
       </c>
       <c r="I478" s="7">
-        <f>J478*H478</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J478" s="3">
@@ -19278,7 +19278,7 @@
         <v>234984.1</v>
       </c>
       <c r="I479" s="7">
-        <f>J479*H479</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J479" s="3">
@@ -19311,7 +19311,7 @@
         <v>253215.63</v>
       </c>
       <c r="I480" s="7">
-        <f>J480*H480</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J480" s="3">
@@ -19344,7 +19344,7 @@
         <v>344373.25</v>
       </c>
       <c r="I481" s="7">
-        <f>J481*H481</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J481" s="3">
@@ -19377,7 +19377,7 @@
         <v>34050.449999999997</v>
       </c>
       <c r="I482" s="7">
-        <f>J482*H482</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J482" s="3">
@@ -19410,7 +19410,7 @@
         <v>75356.97</v>
       </c>
       <c r="I483" s="7">
-        <f>J483*H483</f>
+        <f t="shared" si="7"/>
         <v>672.45</v>
       </c>
       <c r="J483" s="3">
@@ -19443,7 +19443,7 @@
         <v>27898.66</v>
       </c>
       <c r="I484" s="7">
-        <f>J484*H484</f>
+        <f t="shared" si="7"/>
         <v>6724.71</v>
       </c>
       <c r="J484" s="3">
@@ -19476,7 +19476,7 @@
         <v>106114.56</v>
       </c>
       <c r="I485" s="7">
-        <f>J485*H485</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J485" s="3">
@@ -19501,7 +19501,7 @@
       <c r="G486" s="4"/>
       <c r="H486" s="6"/>
       <c r="I486" s="7" t="e">
-        <f>J486*H486</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="J486" s="3" t="s">
@@ -19534,7 +19534,7 @@
         <v>19553096.739999998</v>
       </c>
       <c r="I487" s="7">
-        <f>J487*H487</f>
+        <f t="shared" si="7"/>
         <v>1489408.02</v>
       </c>
       <c r="J487" s="3">
@@ -19567,7 +19567,7 @@
         <v>160736.76999999999</v>
       </c>
       <c r="I488" s="7">
-        <f>J488*H488</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J488" s="3">
@@ -19600,7 +19600,7 @@
         <v>127620.68</v>
       </c>
       <c r="I489" s="7">
-        <f>J489*H489</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J489" s="3">
@@ -19633,7 +19633,7 @@
         <v>433910.3</v>
       </c>
       <c r="I490" s="7">
-        <f>J490*H490</f>
+        <f t="shared" si="7"/>
         <v>25691.279999999999</v>
       </c>
       <c r="J490" s="3">
@@ -19666,7 +19666,7 @@
         <v>2478237.2200000002</v>
       </c>
       <c r="I491" s="7">
-        <f>J491*H491</f>
+        <f t="shared" si="7"/>
         <v>479817.32</v>
       </c>
       <c r="J491" s="3">
@@ -19699,7 +19699,7 @@
         <v>1596818.66</v>
       </c>
       <c r="I492" s="7">
-        <f>J492*H492</f>
+        <f t="shared" si="7"/>
         <v>135013.94</v>
       </c>
       <c r="J492" s="3">
@@ -19732,7 +19732,7 @@
         <v>226881.2</v>
       </c>
       <c r="I493" s="7">
-        <f>J493*H493</f>
+        <f t="shared" si="7"/>
         <v>18984.240000000002</v>
       </c>
       <c r="J493" s="3">
@@ -19765,7 +19765,7 @@
         <v>1272627.3</v>
       </c>
       <c r="I494" s="7">
-        <f>J494*H494</f>
+        <f t="shared" si="7"/>
         <v>422120.41</v>
       </c>
       <c r="J494" s="3">
@@ -19796,7 +19796,7 @@
         <v>74728.56</v>
       </c>
       <c r="I495" s="7">
-        <f>J495*H495</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J495" s="3">
@@ -19827,7 +19827,7 @@
         <v>243087</v>
       </c>
       <c r="I496" s="7">
-        <f>J496*H496</f>
+        <f t="shared" si="7"/>
         <v>33251.31</v>
       </c>
       <c r="J496" s="3">
@@ -19858,7 +19858,7 @@
         <v>48982.8</v>
       </c>
       <c r="I497" s="7">
-        <f>J497*H497</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J497" s="3">
@@ -19891,7 +19891,7 @@
         <v>505418.39</v>
       </c>
       <c r="I498" s="7">
-        <f>J498*H498</f>
+        <f t="shared" si="7"/>
         <v>6724.7</v>
       </c>
       <c r="J498" s="3">
@@ -19924,7 +19924,7 @@
         <v>135115.85999999999</v>
       </c>
       <c r="I499" s="7">
-        <f>J499*H499</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J499" s="3">
@@ -19957,7 +19957,7 @@
         <v>34143.74</v>
       </c>
       <c r="I500" s="7">
-        <f>J500*H500</f>
+        <f t="shared" si="7"/>
         <v>122.22</v>
       </c>
       <c r="J500" s="3">
